--- a/nacl_ucl3_paper/versionk/imagedata/Figure_data_b.xlsx
+++ b/nacl_ucl3_paper/versionk/imagedata/Figure_data_b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/papers/nacl_ucl3_paper/versionJ/imagedata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/papers/nacl_ucl3_paper/versionk/imagedata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B7A109-6AEE-2146-9F28-38CE49D13FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D05FBE9-3B45-9C44-93C0-57E09E84B5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="11520" windowWidth="30960" windowHeight="14600" xr2:uid="{F200AE28-F01C-1E4C-83A9-345B34AA3221}"/>
+    <workbookView xWindow="2900" yWindow="1480" windowWidth="30960" windowHeight="14600" xr2:uid="{F200AE28-F01C-1E4C-83A9-345B34AA3221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Na-Na (Small)</c:v>
+                  <c:v>R</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1198,604 +1198,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.104999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.17499999999999899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.244999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.38500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.45500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.52500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.59499999999999897</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.73499999999999899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.80500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.94499999999999895</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.0149999999999899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.08499999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.155</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1.2250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1.2949999999999899</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1.36499999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.4350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1.5049999999999899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1.57499999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1.645</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1.7150000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>1.7849999999999899</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>1.85499999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>1.925</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.1262026924528298E-5</c:v>
+                  <c:v>1.9950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5875689898867901E-4</c:v>
+                  <c:v>2.0649999999999902</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.9411921390000001E-4</c:v>
+                  <c:v>2.13499999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1495554568301799E-4</c:v>
+                  <c:v>2.2050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0274789119264101E-3</c:v>
+                  <c:v>2.2749999999999901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.4076747199283E-3</c:v>
+                  <c:v>2.3450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.6138487529528297E-3</c:v>
+                  <c:v>2.415</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.09269672793075E-2</c:v>
+                  <c:v>2.4849999999999901</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.1350221992254701E-2</c:v>
+                  <c:v>2.5550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.88267383797831E-2</c:v>
+                  <c:v>2.625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.2757550156413197E-2</c:v>
+                  <c:v>2.6949999999999901</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.102420144333604</c:v>
+                  <c:v>2.7650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.14472374997908199</c:v>
+                  <c:v>2.8349999999999902</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.21395463857392399</c:v>
+                  <c:v>2.90499999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.29564866537879497</c:v>
+                  <c:v>2.9750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.38976368778547799</c:v>
+                  <c:v>3.0449999999999902</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.49143900997640999</c:v>
+                  <c:v>3.1150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.60697369478296304</c:v>
+                  <c:v>3.1850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.73305607238394599</c:v>
+                  <c:v>3.2549999999999901</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.84826586521277902</c:v>
+                  <c:v>3.3250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.97447790780334598</c:v>
+                  <c:v>3.395</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.08197308388853</c:v>
+                  <c:v>3.4649999999999901</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.17418569602036</c:v>
+                  <c:v>3.5350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2541409503757801</c:v>
+                  <c:v>3.6049999999999902</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.32499429301675</c:v>
+                  <c:v>3.6749999999999901</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.38205410721203</c:v>
+                  <c:v>3.7450000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.43143286845329</c:v>
+                  <c:v>3.8149999999999902</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4640982895625401</c:v>
+                  <c:v>3.88499999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.48341025976317</c:v>
+                  <c:v>3.9550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.48939533631184</c:v>
+                  <c:v>4.0250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.47713285713107</c:v>
+                  <c:v>4.09499999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.4674858055242099</c:v>
+                  <c:v>4.165</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.4437733101805801</c:v>
+                  <c:v>4.2350000000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.40854337450392</c:v>
+                  <c:v>4.3049999999999899</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.3818876684980399</c:v>
+                  <c:v>4.375</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3482741192971901</c:v>
+                  <c:v>4.4450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3140907494015499</c:v>
+                  <c:v>4.5149999999999899</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.2979667711373599</c:v>
+                  <c:v>4.5849999999999902</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2745909295629601</c:v>
+                  <c:v>4.6550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.24424541773217</c:v>
+                  <c:v>4.7249999999999899</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.21699756884011</c:v>
+                  <c:v>4.7949999999999902</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.1987677889798001</c:v>
+                  <c:v>4.8650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.1697110294067401</c:v>
+                  <c:v>4.9349999999999898</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.15309059141867</c:v>
+                  <c:v>5.0049999999999901</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.12868271078275</c:v>
+                  <c:v>5.0750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1097983881274001</c:v>
+                  <c:v>5.1449999999999898</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.08512476467133</c:v>
+                  <c:v>5.2149999999999901</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.0568259326346201</c:v>
+                  <c:v>5.2850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0173559106530601</c:v>
+                  <c:v>5.3550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.97854526753677396</c:v>
+                  <c:v>5.4249999999999901</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.94232519989765196</c:v>
+                  <c:v>5.4950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.90943076261900002</c:v>
+                  <c:v>5.5650000000000004</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.88305875038904602</c:v>
+                  <c:v>5.63499999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.85497901324248804</c:v>
+                  <c:v>5.7050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.83170305401408096</c:v>
+                  <c:v>5.7750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.80778627623975496</c:v>
+                  <c:v>5.84499999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.79678537648645198</c:v>
+                  <c:v>5.915</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.78155824886511405</c:v>
+                  <c:v>5.9850000000000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.76919551293043398</c:v>
+                  <c:v>6.0549999999999899</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.76737936873243595</c:v>
+                  <c:v>6.125</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.77495473888523903</c:v>
+                  <c:v>6.1950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.770355780411074</c:v>
+                  <c:v>6.2649999999999899</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.77542470795283203</c:v>
+                  <c:v>6.3349999999999902</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.78490357904198005</c:v>
+                  <c:v>6.4050000000000002</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.79304331353399904</c:v>
+                  <c:v>6.4749999999999899</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.81330228787027103</c:v>
+                  <c:v>6.5449999999999902</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.8282089279532</c:v>
+                  <c:v>6.6150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.84755823094674698</c:v>
+                  <c:v>6.6849999999999898</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.87100224201177601</c:v>
+                  <c:v>6.7549999999999901</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.89181436895741895</c:v>
+                  <c:v>6.8250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.91195630430874197</c:v>
+                  <c:v>6.8949999999999898</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.93098184638004899</c:v>
+                  <c:v>6.9649999999999901</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.95828728027045096</c:v>
+                  <c:v>7.0350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.981230711476343</c:v>
+                  <c:v>7.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.0031135749258</c:v>
+                  <c:v>7.1749999999999901</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.02227460281201</c:v>
+                  <c:v>7.2450000000000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.0469986754523899</c:v>
+                  <c:v>7.3150000000000004</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.06686952757964</c:v>
+                  <c:v>7.38499999999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.08298916249149</c:v>
+                  <c:v>7.4550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.0997388138115201</c:v>
+                  <c:v>7.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.11095336721563</c:v>
+                  <c:v>7.59499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.11541777715698</c:v>
+                  <c:v>7.665</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.1241276335205601</c:v>
+                  <c:v>7.7350000000000003</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.12687234346267</c:v>
+                  <c:v>7.8049999999999899</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.1328790991123501</c:v>
+                  <c:v>7.875</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.14344346903183</c:v>
+                  <c:v>7.9450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.13738683098108</c:v>
+                  <c:v>8.0150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.13341837911451</c:v>
+                  <c:v>8.0850000000000009</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.1274426754203599</c:v>
+                  <c:v>8.1549999999999905</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.12000690414618</c:v>
+                  <c:v>8.2249999999999908</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.1128982159580501</c:v>
+                  <c:v>8.2949999999999893</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.1034423182457</c:v>
+                  <c:v>8.3650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.09307506497263</c:v>
+                  <c:v>8.4350000000000005</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.08223615665901</c:v>
+                  <c:v>8.5050000000000008</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.07160070723944</c:v>
+                  <c:v>8.5749999999999904</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.0601659948125</c:v>
+                  <c:v>8.6449999999999907</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.0434324461351401</c:v>
+                  <c:v>8.7149999999999892</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.0270071262979501</c:v>
+                  <c:v>8.7850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.01983004738743</c:v>
+                  <c:v>8.8550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.0084679448218601</c:v>
+                  <c:v>8.9250000000000007</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.99784209269363799</c:v>
+                  <c:v>8.9949999999999903</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.98088193107953303</c:v>
+                  <c:v>9.0649999999999906</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.971901307353217</c:v>
+                  <c:v>9.1349999999999891</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.96020764286909399</c:v>
+                  <c:v>9.2050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.95019786203019496</c:v>
+                  <c:v>9.2750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.94000064466079702</c:v>
+                  <c:v>9.3450000000000006</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.93495490261301795</c:v>
+                  <c:v>9.4149999999999903</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.92824982420257895</c:v>
+                  <c:v>9.4849999999999905</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.92374152876489501</c:v>
+                  <c:v>9.5549999999999908</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.91498908262712098</c:v>
+                  <c:v>9.625</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.90748911603114302</c:v>
+                  <c:v>9.6950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.90807487215208105</c:v>
+                  <c:v>9.7650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.90501923535400697</c:v>
+                  <c:v>9.8350000000000009</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.91375845119024601</c:v>
+                  <c:v>9.9049999999999905</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.914389154064425</c:v>
+                  <c:v>9.9749999999999908</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.91321456435811699</c:v>
+                  <c:v>10.0449999999999</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.92360632524141095</c:v>
+                  <c:v>10.115</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.92620495453243401</c:v>
+                  <c:v>10.185</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.93467553881389198</c:v>
+                  <c:v>10.255000000000001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.942316508963979</c:v>
+                  <c:v>10.3249999999999</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.93399729154623801</c:v>
+                  <c:v>10.3949999999999</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.941825931382125</c:v>
+                  <c:v>10.4649999999999</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.94737281688235697</c:v>
+                  <c:v>10.535</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.95380134831699004</c:v>
+                  <c:v>10.605</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.95515557914175697</c:v>
+                  <c:v>10.675000000000001</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.969346916355451</c:v>
+                  <c:v>10.7449999999999</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.97541231550673102</c:v>
+                  <c:v>10.8149999999999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.99873024393071197</c:v>
+                  <c:v>10.8849999999999</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1.00762434095817</c:v>
+                  <c:v>10.955</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.01305244958684</c:v>
+                  <c:v>11.025</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.0341278160021501</c:v>
+                  <c:v>11.095000000000001</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1.0437600019616999</c:v>
+                  <c:v>11.1649999999999</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1.0493804926880299</c:v>
+                  <c:v>11.2349999999999</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.05985780047349</c:v>
+                  <c:v>11.3049999999999</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.07913518888509</c:v>
+                  <c:v>11.375</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1.0728881709009099</c:v>
+                  <c:v>11.445</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1.0675025600439001</c:v>
+                  <c:v>11.515000000000001</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.0785014663738</c:v>
+                  <c:v>11.585000000000001</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.0747899879426901</c:v>
+                  <c:v>11.6549999999999</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.0962218168234199</c:v>
+                  <c:v>11.7249999999999</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.0881680745103099</c:v>
+                  <c:v>11.7949999999999</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1.08229520286796</c:v>
+                  <c:v>11.865</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.08936164049156</c:v>
+                  <c:v>11.935</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.0753999952370901</c:v>
+                  <c:v>12.005000000000001</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.0657099196958799</c:v>
+                  <c:v>12.0749999999999</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.05745219255191</c:v>
+                  <c:v>12.1449999999999</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.0558016382979001</c:v>
+                  <c:v>12.2149999999999</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.03243485615013</c:v>
+                  <c:v>12.285</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.03023537809246</c:v>
+                  <c:v>12.355</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.01171493723675</c:v>
+                  <c:v>12.425000000000001</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.0089643527743699</c:v>
+                  <c:v>12.4949999999999</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.0026255781570199</c:v>
+                  <c:v>12.5649999999999</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.98020558695189697</c:v>
+                  <c:v>12.6349999999999</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.97909930308377602</c:v>
+                  <c:v>12.705</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.97221100532409099</c:v>
+                  <c:v>12.775</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.98003665253719496</c:v>
+                  <c:v>12.845000000000001</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.96915728665346002</c:v>
+                  <c:v>12.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.96444838886731499</c:v>
+                  <c:v>12.9849999999999</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.95989550359493503</c:v>
+                  <c:v>13.0549999999999</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.96049874596942297</c:v>
+                  <c:v>13.125</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.95889016993504395</c:v>
+                  <c:v>13.195</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.95489113833541595</c:v>
+                  <c:v>13.265000000000001</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.95033645773473296</c:v>
+                  <c:v>13.335000000000001</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.96606673006648802</c:v>
+                  <c:v>13.4049999999999</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.95323179839581396</c:v>
+                  <c:v>13.4749999999999</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.94990841118882297</c:v>
+                  <c:v>13.5449999999999</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.94743472419436203</c:v>
+                  <c:v>13.615</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.94546328085904796</c:v>
+                  <c:v>13.685</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.94918042238675304</c:v>
+                  <c:v>13.755000000000001</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.95418793968187698</c:v>
+                  <c:v>13.8249999999999</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.96296194288008297</c:v>
+                  <c:v>13.8949999999999</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.96756766861427501</c:v>
+                  <c:v>13.9649999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,7 +1816,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Na-Cl (Small)</c:v>
+                  <c:v>Na-Na (Small)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2524,520 +2524,520 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3819933531320701E-4</c:v>
+                  <c:v>2.1262026924528298E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.4504442398584798E-3</c:v>
+                  <c:v>1.5875689898867901E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.4696426247547101E-2</c:v>
+                  <c:v>1.9411921390000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.14430267987314899</c:v>
+                  <c:v>3.1495554568301799E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.48453188798164798</c:v>
+                  <c:v>1.0274789119264101E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.17065251951661</c:v>
+                  <c:v>2.4076747199283E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.0427197324870199</c:v>
+                  <c:v>5.6138487529528297E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.8698226963873399</c:v>
+                  <c:v>1.09269672793075E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.45018897758729</c:v>
+                  <c:v>2.1350221992254701E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.6671492635713299</c:v>
+                  <c:v>3.88267383797831E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.60010405298903</c:v>
+                  <c:v>6.2757550156413197E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.2999254146096</c:v>
+                  <c:v>0.102420144333604</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.9216723880195299</c:v>
+                  <c:v>0.14472374997908199</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.5175317941264499</c:v>
+                  <c:v>0.21395463857392399</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1559799779311102</c:v>
+                  <c:v>0.29564866537879497</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.8315853473829</c:v>
+                  <c:v>0.38976368778547799</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.5486550348886201</c:v>
+                  <c:v>0.49143900997640999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.32729036109576</c:v>
+                  <c:v>0.60697369478296304</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1539167818782901</c:v>
+                  <c:v>0.73305607238394599</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0035660598817</c:v>
+                  <c:v>0.84826586521277902</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.88362777057744302</c:v>
+                  <c:v>0.97447790780334598</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.79396938484310697</c:v>
+                  <c:v>1.08197308388853</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.71784327043132101</c:v>
+                  <c:v>1.17418569602036</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.66073346903616503</c:v>
+                  <c:v>1.2541409503757801</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.62410260893910496</c:v>
+                  <c:v>1.32499429301675</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.59781849045890401</c:v>
+                  <c:v>1.38205410721203</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.56853535336012795</c:v>
+                  <c:v>1.43143286845329</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.54257290804563596</c:v>
+                  <c:v>1.4640982895625401</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.52987644785311805</c:v>
+                  <c:v>1.48341025976317</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.53164056117152103</c:v>
+                  <c:v>1.48939533631184</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.52734244402937203</c:v>
+                  <c:v>1.47713285713107</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.52171677764468605</c:v>
+                  <c:v>1.4674858055242099</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.52590952659293899</c:v>
+                  <c:v>1.4437733101805801</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.53609988499897099</c:v>
+                  <c:v>1.40854337450392</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.54537832956718102</c:v>
+                  <c:v>1.3818876684980399</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.55911691177327405</c:v>
+                  <c:v>1.3482741192971901</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.57705188647718997</c:v>
+                  <c:v>1.3140907494015499</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.59308295534816702</c:v>
+                  <c:v>1.2979667711373599</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.61430801802271295</c:v>
+                  <c:v>1.2745909295629601</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.64070624672000298</c:v>
+                  <c:v>1.24424541773217</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.67022452824038403</c:v>
+                  <c:v>1.21699756884011</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.70278017085856703</c:v>
+                  <c:v>1.1987677889798001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.73521584282641805</c:v>
+                  <c:v>1.1697110294067401</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.77884810040280905</c:v>
+                  <c:v>1.15309059141867</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.81660352076679399</c:v>
+                  <c:v>1.12868271078275</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.85841475964031899</c:v>
+                  <c:v>1.1097983881274001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.90098895447539395</c:v>
+                  <c:v>1.08512476467133</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.94637901302318606</c:v>
+                  <c:v>1.0568259326346201</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.99314893662631398</c:v>
+                  <c:v>1.0173559106530601</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.0386225781042999</c:v>
+                  <c:v>0.97854526753677396</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.08033953668654</c:v>
+                  <c:v>0.94232519989765196</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1152442763946999</c:v>
+                  <c:v>0.90943076261900002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.1554655221623999</c:v>
+                  <c:v>0.88305875038904602</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1909803601233999</c:v>
+                  <c:v>0.85497901324248804</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.2276393572623701</c:v>
+                  <c:v>0.83170305401408096</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.2567365920714699</c:v>
+                  <c:v>0.80778627623975496</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.2752768009548501</c:v>
+                  <c:v>0.79678537648645198</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.2922765716823601</c:v>
+                  <c:v>0.78155824886511405</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.2926811285909401</c:v>
+                  <c:v>0.76919551293043398</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.2947879337953401</c:v>
+                  <c:v>0.76737936873243595</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.29215855717783</c:v>
+                  <c:v>0.77495473888523903</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.28660142767217</c:v>
+                  <c:v>0.770355780411074</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.27751632518762</c:v>
+                  <c:v>0.77542470795283203</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.2586671227428099</c:v>
+                  <c:v>0.78490357904198005</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.23681671684498</c:v>
+                  <c:v>0.79304331353399904</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.2075195098534699</c:v>
+                  <c:v>0.81330228787027103</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.1811206605392399</c:v>
+                  <c:v>0.8282089279532</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.16217900042849</c:v>
+                  <c:v>0.84755823094674698</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.1267695589259501</c:v>
+                  <c:v>0.87100224201177601</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.09726565188049</c:v>
+                  <c:v>0.89181436895741895</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.06840231458848</c:v>
+                  <c:v>0.91195630430874197</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.0411710709620501</c:v>
+                  <c:v>0.93098184638004899</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.01561971142981</c:v>
+                  <c:v>0.95828728027045096</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.99148233903384497</c:v>
+                  <c:v>0.981230711476343</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.97475211468971201</c:v>
+                  <c:v>1.0031135749258</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.94976672362066705</c:v>
+                  <c:v>1.02227460281201</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.93371129655877705</c:v>
+                  <c:v>1.0469986754523899</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.915235128976298</c:v>
+                  <c:v>1.06686952757964</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.89730972081995697</c:v>
+                  <c:v>1.08298916249149</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.88743886021482299</c:v>
+                  <c:v>1.0997388138115201</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.877429586509204</c:v>
+                  <c:v>1.11095336721563</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.87059980265023196</c:v>
+                  <c:v>1.11541777715698</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.86063874722754696</c:v>
+                  <c:v>1.1241276335205601</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.85460062516948399</c:v>
+                  <c:v>1.12687234346267</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.85235606224072602</c:v>
+                  <c:v>1.1328790991123501</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.84875107524896298</c:v>
+                  <c:v>1.14344346903183</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.84935951855162595</c:v>
+                  <c:v>1.13738683098108</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.84754027239557495</c:v>
+                  <c:v>1.13341837911451</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.85483524801218003</c:v>
+                  <c:v>1.1274426754203599</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.85874367277263897</c:v>
+                  <c:v>1.12000690414618</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.86793712638270404</c:v>
+                  <c:v>1.1128982159580501</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.87897116436253797</c:v>
+                  <c:v>1.1034423182457</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.889882996059704</c:v>
+                  <c:v>1.09307506497263</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.89780267615578502</c:v>
+                  <c:v>1.08223615665901</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.91256943800931101</c:v>
+                  <c:v>1.07160070723944</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.927435662921687</c:v>
+                  <c:v>1.0601659948125</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.93756822695363795</c:v>
+                  <c:v>1.0434324461351401</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.94882974404087095</c:v>
+                  <c:v>1.0270071262979501</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.96714064170112501</c:v>
+                  <c:v>1.01983004738743</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.98358724809057096</c:v>
+                  <c:v>1.0084679448218601</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.0005297835612901</c:v>
+                  <c:v>0.99784209269363799</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.01284360871906</c:v>
+                  <c:v>0.98088193107953303</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.02572696061349</c:v>
+                  <c:v>0.971901307353217</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.0421437402545699</c:v>
+                  <c:v>0.96020764286909399</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.0528384006181299</c:v>
+                  <c:v>0.95019786203019496</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.06472752334142</c:v>
+                  <c:v>0.94000064466079702</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.0738221584398799</c:v>
+                  <c:v>0.93495490261301795</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.08531186311473</c:v>
+                  <c:v>0.92824982420257895</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.09289581836054</c:v>
+                  <c:v>0.92374152876489501</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.09733336741211</c:v>
+                  <c:v>0.91498908262712098</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.09855875041041</c:v>
+                  <c:v>0.90748911603114302</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.0986768624643699</c:v>
+                  <c:v>0.90807487215208105</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1.0990399122704999</c:v>
+                  <c:v>0.90501923535400697</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1.09652112672762</c:v>
+                  <c:v>0.91375845119024601</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1.0929631233761301</c:v>
+                  <c:v>0.914389154064425</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1.0890503884363101</c:v>
+                  <c:v>0.91321456435811699</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1.0830865875576099</c:v>
+                  <c:v>0.92360632524141095</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1.07700069332922</c:v>
+                  <c:v>0.92620495453243401</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1.06908123046595</c:v>
+                  <c:v>0.93467553881389198</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1.0571208870106901</c:v>
+                  <c:v>0.942316508963979</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1.0488190024944599</c:v>
+                  <c:v>0.93399729154623801</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.0434046041756</c:v>
+                  <c:v>0.941825931382125</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.03111811713926</c:v>
+                  <c:v>0.94737281688235697</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.0219767356621501</c:v>
+                  <c:v>0.95380134831699004</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.0104063145637501</c:v>
+                  <c:v>0.95515557914175697</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.99966412370379498</c:v>
+                  <c:v>0.969346916355451</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.99192870342801298</c:v>
+                  <c:v>0.97541231550673102</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.98232411104668804</c:v>
+                  <c:v>0.99873024393071197</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.975961599567717</c:v>
+                  <c:v>1.00762434095817</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.97140562162558697</c:v>
+                  <c:v>1.01305244958684</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.96611521691623403</c:v>
+                  <c:v>1.0341278160021501</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.95816399464105795</c:v>
+                  <c:v>1.0437600019616999</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.95341230198891702</c:v>
+                  <c:v>1.0493804926880299</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.94803126454745201</c:v>
+                  <c:v>1.05985780047349</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.94544267959717898</c:v>
+                  <c:v>1.07913518888509</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.94499338148724199</c:v>
+                  <c:v>1.0728881709009099</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.94530274085169397</c:v>
+                  <c:v>1.0675025600439001</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.94177187410824004</c:v>
+                  <c:v>1.0785014663738</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.94156775880152899</c:v>
+                  <c:v>1.0747899879426901</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.94263375768292601</c:v>
+                  <c:v>1.0962218168234199</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.94371446920539004</c:v>
+                  <c:v>1.0881680745103099</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.94691166781741298</c:v>
+                  <c:v>1.08229520286796</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.94872348413418295</c:v>
+                  <c:v>1.08936164049156</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.95185511832740299</c:v>
+                  <c:v>1.0753999952370901</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.95614616251032403</c:v>
+                  <c:v>1.0657099196958799</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.96067322543056199</c:v>
+                  <c:v>1.05745219255191</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.96845800575952101</c:v>
+                  <c:v>1.0558016382979001</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.97383937710957402</c:v>
+                  <c:v>1.03243485615013</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.97648527928545004</c:v>
+                  <c:v>1.03023537809246</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.98586063620664899</c:v>
+                  <c:v>1.01171493723675</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.99212226448822904</c:v>
+                  <c:v>1.0089643527743699</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.99788234532249098</c:v>
+                  <c:v>1.0026255781570199</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.0009546120750401</c:v>
+                  <c:v>0.98020558695189697</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.00478556971151</c:v>
+                  <c:v>0.97909930308377602</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.0087101193977399</c:v>
+                  <c:v>0.97221100532409099</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1.0138256659259599</c:v>
+                  <c:v>0.98003665253719496</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1.01820893463284</c:v>
+                  <c:v>0.96915728665346002</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1.0248460366188901</c:v>
+                  <c:v>0.96444838886731499</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.0267263466477701</c:v>
+                  <c:v>0.95989550359493503</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1.0332584528761899</c:v>
+                  <c:v>0.96049874596942297</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1.03661127233978</c:v>
+                  <c:v>0.95889016993504395</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1.0401321728487001</c:v>
+                  <c:v>0.95489113833541595</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1.04302011505227</c:v>
+                  <c:v>0.95033645773473296</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1.0434240880761401</c:v>
+                  <c:v>0.96606673006648802</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1.0445379025699899</c:v>
+                  <c:v>0.95323179839581396</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1.0418190988473801</c:v>
+                  <c:v>0.94990841118882297</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1.04141687707148</c:v>
+                  <c:v>0.94743472419436203</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1.0411883517094001</c:v>
+                  <c:v>0.94546328085904796</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1.0369749379418001</c:v>
+                  <c:v>0.94918042238675304</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1.0358147075225801</c:v>
+                  <c:v>0.95418793968187698</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1.0352366401050701</c:v>
+                  <c:v>0.96296194288008297</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1.0310673385774101</c:v>
+                  <c:v>0.96756766861427501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3058,7 +3058,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cl-Cl (Small)</c:v>
+                  <c:v>Na-Cl (Small)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3766,520 +3766,520 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1.3819933531320701E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2.4504442398584798E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>2.4696426247547101E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.14430267987314899</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.48453188798164798</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1.17065251951661</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>2.0427197324870199</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>2.8698226963873399</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>3.45018897758729</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.3848901507924499E-4</c:v>
+                  <c:v>3.6671492635713299</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.12407900316603E-3</c:v>
+                  <c:v>3.60010405298903</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.3136933220075399E-3</c:v>
+                  <c:v>3.2999254146096</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.1665782505641405E-3</c:v>
+                  <c:v>2.9216723880195299</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.3803013868303802E-2</c:v>
+                  <c:v>2.5175317941264499</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.3263919422822603E-2</c:v>
+                  <c:v>2.1559799779311102</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.111028296796881</c:v>
+                  <c:v>1.8315853473829</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.18916390500347399</c:v>
+                  <c:v>1.5486550348886201</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.28713967347832797</c:v>
+                  <c:v>1.32729036109576</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.41374008826552899</c:v>
+                  <c:v>1.1539167818782901</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.554904993927128</c:v>
+                  <c:v>1.0035660598817</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.72070809988822704</c:v>
+                  <c:v>0.88362777057744302</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.89643841563594096</c:v>
+                  <c:v>0.79396938484310697</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.07889584765133</c:v>
+                  <c:v>0.71784327043132101</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.24431528702784</c:v>
+                  <c:v>0.66073346903616503</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3788716426679399</c:v>
+                  <c:v>0.62410260893910496</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.5225457000649301</c:v>
+                  <c:v>0.59781849045890401</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.6108321165725401</c:v>
+                  <c:v>0.56853535336012795</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.66890889177344</c:v>
+                  <c:v>0.54257290804563596</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.73009121465759</c:v>
+                  <c:v>0.52987644785311805</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.76525118206128</c:v>
+                  <c:v>0.53164056117152103</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.75857509901942</c:v>
+                  <c:v>0.52734244402937203</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.7454310292927699</c:v>
+                  <c:v>0.52171677764468605</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7053963694938401</c:v>
+                  <c:v>0.52590952659293899</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.66567073841062</c:v>
+                  <c:v>0.53609988499897099</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.6366084202981499</c:v>
+                  <c:v>0.54537832956718102</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.58500037910665</c:v>
+                  <c:v>0.55911691177327405</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.51131229227268</c:v>
+                  <c:v>0.57705188647718997</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.44724539123947</c:v>
+                  <c:v>0.59308295534816702</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.3885189994013001</c:v>
+                  <c:v>0.61430801802271295</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.3351772314567401</c:v>
+                  <c:v>0.64070624672000298</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.2903530393837299</c:v>
+                  <c:v>0.67022452824038403</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.2340724628556501</c:v>
+                  <c:v>0.70278017085856703</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.1870885506146001</c:v>
+                  <c:v>0.73521584282641805</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.1452580907630101</c:v>
+                  <c:v>0.77884810040280905</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.0971696711318799</c:v>
+                  <c:v>0.81660352076679399</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.0501159547757599</c:v>
+                  <c:v>0.85841475964031899</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.02125712829445</c:v>
+                  <c:v>0.90098895447539395</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.97577638998875604</c:v>
+                  <c:v>0.94637901302318606</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.92993820879223199</c:v>
+                  <c:v>0.99314893662631398</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.894132218505859</c:v>
+                  <c:v>1.0386225781042999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.85507967671683904</c:v>
+                  <c:v>1.08033953668654</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.82515641289817998</c:v>
+                  <c:v>1.1152442763946999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.79810891585200805</c:v>
+                  <c:v>1.1554655221623999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.77770125306986804</c:v>
+                  <c:v>1.1909803601233999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.75650353618817001</c:v>
+                  <c:v>1.2276393572623701</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.73671742118513905</c:v>
+                  <c:v>1.2567365920714699</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.71759481025568395</c:v>
+                  <c:v>1.2752768009548501</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.71048706124615701</c:v>
+                  <c:v>1.2922765716823601</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.70258202230287603</c:v>
+                  <c:v>1.2926811285909401</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.70293359117370702</c:v>
+                  <c:v>1.2947879337953401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.70241870106811299</c:v>
+                  <c:v>1.29215855717783</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.71429829261921096</c:v>
+                  <c:v>1.28660142767217</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.71243999125939805</c:v>
+                  <c:v>1.27751632518762</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.73016621544360605</c:v>
+                  <c:v>1.2586671227428099</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.74968520896874702</c:v>
+                  <c:v>1.23681671684498</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.76417154042284396</c:v>
+                  <c:v>1.2075195098534699</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.78886296982911797</c:v>
+                  <c:v>1.1811206605392399</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.80992696639679695</c:v>
+                  <c:v>1.16217900042849</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.834973017798051</c:v>
+                  <c:v>1.1267695589259501</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.86272272729232902</c:v>
+                  <c:v>1.09726565188049</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.89189961619564795</c:v>
+                  <c:v>1.06840231458848</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.92430636302526004</c:v>
+                  <c:v>1.0411710709620501</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.95672514942466602</c:v>
+                  <c:v>1.01561971142981</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.99312839428296995</c:v>
+                  <c:v>0.99148233903384497</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.01655293114546</c:v>
+                  <c:v>0.97475211468971201</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.0448824360184601</c:v>
+                  <c:v>0.94976672362066705</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.0688961531810901</c:v>
+                  <c:v>0.93371129655877705</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.09656810584236</c:v>
+                  <c:v>0.915235128976298</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.1190440907954999</c:v>
+                  <c:v>0.89730972081995697</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.13775684174874</c:v>
+                  <c:v>0.88743886021482299</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.15929704512193</c:v>
+                  <c:v>0.877429586509204</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.17088739110527</c:v>
+                  <c:v>0.87059980265023196</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.17904238916273</c:v>
+                  <c:v>0.86063874722754696</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.18521760267767</c:v>
+                  <c:v>0.85460062516948399</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.1916101413000499</c:v>
+                  <c:v>0.85235606224072602</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.1926088215049899</c:v>
+                  <c:v>0.84875107524896298</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.19316656886021</c:v>
+                  <c:v>0.84935951855162595</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.1926016600796101</c:v>
+                  <c:v>0.84754027239557495</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.1783558047843401</c:v>
+                  <c:v>0.85483524801218003</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.1655907836263799</c:v>
+                  <c:v>0.85874367277263897</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.1565181598326899</c:v>
+                  <c:v>0.86793712638270404</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.13716888976618</c:v>
+                  <c:v>0.87897116436253797</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.11901286983133</c:v>
+                  <c:v>0.889882996059704</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.10391143750734</c:v>
+                  <c:v>0.89780267615578502</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.0867582458635701</c:v>
+                  <c:v>0.91256943800931101</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.064871305184</c:v>
+                  <c:v>0.927435662921687</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.0444909766406301</c:v>
+                  <c:v>0.93756822695363795</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.0231885272493799</c:v>
+                  <c:v>0.94882974404087095</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.0091623329545301</c:v>
+                  <c:v>0.96714064170112501</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.99524762381311704</c:v>
+                  <c:v>0.98358724809057096</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.97755855878876496</c:v>
+                  <c:v>1.0005297835612901</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.96509064279011503</c:v>
+                  <c:v>1.01284360871906</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.95301468074448503</c:v>
+                  <c:v>1.02572696061349</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.93984077003671895</c:v>
+                  <c:v>1.0421437402545699</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.93001466791989196</c:v>
+                  <c:v>1.0528384006181299</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.918580438147648</c:v>
+                  <c:v>1.06472752334142</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.90932768909844897</c:v>
+                  <c:v>1.0738221584398799</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.90272908808588503</c:v>
+                  <c:v>1.08531186311473</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.89067591802711799</c:v>
+                  <c:v>1.09289581836054</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.89085998559951696</c:v>
+                  <c:v>1.09733336741211</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.88607285883609599</c:v>
+                  <c:v>1.09855875041041</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.88248673743745498</c:v>
+                  <c:v>1.0986768624643699</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.88227528714243497</c:v>
+                  <c:v>1.0990399122704999</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.88409957285135199</c:v>
+                  <c:v>1.09652112672762</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.88750080349129001</c:v>
+                  <c:v>1.0929631233761301</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.89359376353799402</c:v>
+                  <c:v>1.0890503884363101</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.90436182852155</c:v>
+                  <c:v>1.0830865875576099</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.91262922862274998</c:v>
+                  <c:v>1.07700069332922</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.91737080921257697</c:v>
+                  <c:v>1.06908123046595</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.92697637354963403</c:v>
+                  <c:v>1.0571208870106901</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.92848309322511002</c:v>
+                  <c:v>1.0488190024944599</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.941903713369454</c:v>
+                  <c:v>1.0434046041756</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.94584311456701298</c:v>
+                  <c:v>1.03111811713926</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.95903686961664503</c:v>
+                  <c:v>1.0219767356621501</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.96164911760954697</c:v>
+                  <c:v>1.0104063145637501</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.97111255387786499</c:v>
+                  <c:v>0.99966412370379498</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.98341671959231702</c:v>
+                  <c:v>0.99192870342801298</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.00592215879395</c:v>
+                  <c:v>0.98232411104668804</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1.01013318879947</c:v>
+                  <c:v>0.975961599567717</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.0215952196357501</c:v>
+                  <c:v>0.97140562162558697</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.0371058519657199</c:v>
+                  <c:v>0.96611521691623403</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1.05849862743259</c:v>
+                  <c:v>0.95816399464105795</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1.0704566331728</c:v>
+                  <c:v>0.95341230198891702</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.07709964377005</c:v>
+                  <c:v>0.94803126454745201</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.10035667971162</c:v>
+                  <c:v>0.94544267959717898</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1.09243213163789</c:v>
+                  <c:v>0.94499338148724199</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1.08098401663392</c:v>
+                  <c:v>0.94530274085169397</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.0938359810487299</c:v>
+                  <c:v>0.94177187410824004</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.09168177936054</c:v>
+                  <c:v>0.94156775880152899</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.1100605990209</c:v>
+                  <c:v>0.94263375768292601</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.09639780439587</c:v>
+                  <c:v>0.94371446920539004</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1.0898217492006901</c:v>
+                  <c:v>0.94691166781741298</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.0974125223003499</c:v>
+                  <c:v>0.94872348413418295</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.0835238886518199</c:v>
+                  <c:v>0.95185511832740299</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.07120671125955</c:v>
+                  <c:v>0.95614616251032403</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.06114224078528</c:v>
+                  <c:v>0.96067322543056199</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.0598566059522001</c:v>
+                  <c:v>0.96845800575952101</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.03535791734564</c:v>
+                  <c:v>0.97383937710957402</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.0285385151083799</c:v>
+                  <c:v>0.97648527928545004</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.0130141125249199</c:v>
+                  <c:v>0.98586063620664899</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.01007818690025</c:v>
+                  <c:v>0.99212226448822904</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.00093700726937</c:v>
+                  <c:v>0.99788234532249098</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.97471342434937103</c:v>
+                  <c:v>1.0009546120750401</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.97561411922428398</c:v>
+                  <c:v>1.00478556971151</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.96729767823574797</c:v>
+                  <c:v>1.0087101193977399</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.97113508861431197</c:v>
+                  <c:v>1.0138256659259599</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.95904529263960303</c:v>
+                  <c:v>1.01820893463284</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.948998933077421</c:v>
+                  <c:v>1.0248460366188901</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.94848537069591099</c:v>
+                  <c:v>1.0267263466477701</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.95352912956163105</c:v>
+                  <c:v>1.0332584528761899</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.94838941420714296</c:v>
+                  <c:v>1.03661127233978</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.94389648100369905</c:v>
+                  <c:v>1.0401321728487001</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.94161611557397196</c:v>
+                  <c:v>1.04302011505227</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.95626037345959702</c:v>
+                  <c:v>1.0434240880761401</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.94646759915032197</c:v>
+                  <c:v>1.0445379025699899</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.94249548569333297</c:v>
+                  <c:v>1.0418190988473801</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.94140551104350201</c:v>
+                  <c:v>1.04141687707148</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.94137225504334898</c:v>
+                  <c:v>1.0411883517094001</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.94871658980645501</c:v>
+                  <c:v>1.0369749379418001</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.95493147485626495</c:v>
+                  <c:v>1.0358147075225801</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.96204436218244904</c:v>
+                  <c:v>1.0352366401050701</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.96617817378228099</c:v>
+                  <c:v>1.0310673385774101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4300,7 +4300,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Na-Na (Large)</c:v>
+                  <c:v>R</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4634,304 +4634,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.9999999999999901E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.17999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.29999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.41999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.1399999999999899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.3799999999999899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.73999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.97999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.84491905247285E-4</c:v>
+                  <c:v>2.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4191945291917902E-3</c:v>
+                  <c:v>2.3399999999999901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.09345811555488E-2</c:v>
+                  <c:v>2.4599999999999902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.6386918300200998E-2</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.5649441198110198E-2</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.14052963554819001</c:v>
+                  <c:v>2.8199999999999901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.24221116508471999</c:v>
+                  <c:v>2.9399999999999902</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.40276567354121401</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.61774698164507402</c:v>
+                  <c:v>3.18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.83418339574487099</c:v>
+                  <c:v>3.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0340656545345901</c:v>
+                  <c:v>3.4199999999999902</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.21278811581113</c:v>
+                  <c:v>3.54</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.36210790082036</c:v>
+                  <c:v>3.66</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.45741776448708</c:v>
+                  <c:v>3.77999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.47419709805285</c:v>
+                  <c:v>3.8999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.4644109265667899</c:v>
+                  <c:v>4.0199999999999898</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.46333449695488</c:v>
+                  <c:v>4.1399999999999899</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.43359596936588</c:v>
+                  <c:v>4.25999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.36903278016912</c:v>
+                  <c:v>4.3799999999999901</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3175723164817601</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.27355438805225</c:v>
+                  <c:v>4.62</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.23898334878053</c:v>
+                  <c:v>4.74</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1792476815098101</c:v>
+                  <c:v>4.8600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.1479515254249699</c:v>
+                  <c:v>4.9800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.1037123913911899</c:v>
+                  <c:v>5.0999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0743233194448101</c:v>
+                  <c:v>5.21999999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.02649375113429</c:v>
+                  <c:v>5.3399999999999901</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.95329197678658695</c:v>
+                  <c:v>5.4599999999999902</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.91180527911204201</c:v>
+                  <c:v>5.58</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.84926553480892797</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.81121028257428496</c:v>
+                  <c:v>5.82</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.78317869890235203</c:v>
+                  <c:v>5.94</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.76761515262161195</c:v>
+                  <c:v>6.0599999999999898</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.77338322814571703</c:v>
+                  <c:v>6.1799999999999899</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.77929089614286295</c:v>
+                  <c:v>6.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.80058731853206799</c:v>
+                  <c:v>6.4199999999999902</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.83242859118649004</c:v>
+                  <c:v>6.54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.84798300479253896</c:v>
+                  <c:v>6.66</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.89575850896445497</c:v>
+                  <c:v>6.78</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.93547206997255505</c:v>
+                  <c:v>6.9</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.95978125905697498</c:v>
+                  <c:v>7.0199999999999898</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.99755805119052998</c:v>
+                  <c:v>7.1399999999999899</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0382196623961799</c:v>
+                  <c:v>7.25999999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.06303804897358</c:v>
+                  <c:v>7.3799999999999901</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.0903405729545399</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.10790750614879</c:v>
+                  <c:v>7.62</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.11571030804072</c:v>
+                  <c:v>7.74</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.1283417787232799</c:v>
+                  <c:v>7.86</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.1330379649379301</c:v>
+                  <c:v>7.98</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1242567783800701</c:v>
+                  <c:v>8.0999999999999908</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.10984216495267</c:v>
+                  <c:v>8.2200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.10160331019585</c:v>
+                  <c:v>8.3399999999999892</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0846067218859401</c:v>
+                  <c:v>8.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.06957610125359</c:v>
+                  <c:v>8.58</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.048523216889</c:v>
+                  <c:v>8.6999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.01605595657056</c:v>
+                  <c:v>8.82</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0003271503664399</c:v>
+                  <c:v>8.9399999999999906</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.97793710633659203</c:v>
+                  <c:v>9.06</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.97055378848604901</c:v>
+                  <c:v>9.1799999999999908</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.94424062973130296</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.93975681055844196</c:v>
+                  <c:v>9.4199999999999893</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.93396838465186605</c:v>
+                  <c:v>9.5399999999999903</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.92082453829213695</c:v>
+                  <c:v>9.66</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.92464104515796097</c:v>
+                  <c:v>9.7799999999999905</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.92453937278030196</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.92760813817802401</c:v>
+                  <c:v>10.0199999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.937790558585607</c:v>
+                  <c:v>10.14</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.94432437058934304</c:v>
+                  <c:v>10.2599999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.951772998201589</c:v>
+                  <c:v>10.38</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.96640455866270403</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.97893548908584405</c:v>
+                  <c:v>10.6199999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.99791716641893902</c:v>
+                  <c:v>10.74</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.00407607938425</c:v>
+                  <c:v>10.8599999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.02269778341194</c:v>
+                  <c:v>10.98</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.0319667259836101</c:v>
+                  <c:v>11.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.0406220336181899</c:v>
+                  <c:v>11.22</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.0438250495497801</c:v>
+                  <c:v>11.3399999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.0508941374261001</c:v>
+                  <c:v>11.46</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.04511336570973</c:v>
+                  <c:v>11.58</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.04143750879149</c:v>
+                  <c:v>11.6999999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.04162545382477</c:v>
+                  <c:v>11.82</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.04059020765558</c:v>
+                  <c:v>11.9399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4952,7 +4952,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Na-Cl (Large)</c:v>
+                  <c:v>Na-Na (Large)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5334,256 +5334,256 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.21491762484921E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0636551507659801E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.21037506357595401</c:v>
+                  <c:v>3.84491905247285E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1303314916834699</c:v>
+                  <c:v>2.4191945291917902E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.5700760345542499</c:v>
+                  <c:v>1.09345811555488E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.5226827536988199</c:v>
+                  <c:v>2.6386918300200998E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.5834727969504998</c:v>
+                  <c:v>6.5649441198110198E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0404109134004802</c:v>
+                  <c:v>0.14052963554819001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3510158607392801</c:v>
+                  <c:v>0.24221116508471999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.76946246126173</c:v>
+                  <c:v>0.40276567354121401</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3435305243456499</c:v>
+                  <c:v>0.61774698164507402</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0711667495559301</c:v>
+                  <c:v>0.83418339574487099</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.85335258681656501</c:v>
+                  <c:v>1.0340656545345901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.72387323931533898</c:v>
+                  <c:v>1.21278811581113</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.63400300527563302</c:v>
+                  <c:v>1.36210790082036</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.583344984659247</c:v>
+                  <c:v>1.45741776448708</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.54749627334041095</c:v>
+                  <c:v>1.47419709805285</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.52505567699650102</c:v>
+                  <c:v>1.4644109265667899</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.52601622190834396</c:v>
+                  <c:v>1.46333449695488</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.53806624399901404</c:v>
+                  <c:v>1.43359596936588</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.55521296042780599</c:v>
+                  <c:v>1.36903278016912</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.57876650913058103</c:v>
+                  <c:v>1.3175723164817601</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.61475633863479995</c:v>
+                  <c:v>1.27355438805225</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.65622039022617396</c:v>
+                  <c:v>1.23898334878053</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.699757135184921</c:v>
+                  <c:v>1.1792476815098101</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.76875131182866896</c:v>
+                  <c:v>1.1479515254249699</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.83567809717406505</c:v>
+                  <c:v>1.1037123913911899</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.90656721499970006</c:v>
+                  <c:v>1.0743233194448101</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.97389401642778295</c:v>
+                  <c:v>1.02649375113429</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0571231658323901</c:v>
+                  <c:v>0.95329197678658695</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1262284401306699</c:v>
+                  <c:v>0.91180527911204201</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1827199192648701</c:v>
+                  <c:v>0.84926553480892797</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.2375493297196001</c:v>
+                  <c:v>0.81121028257428496</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.27978485246771</c:v>
+                  <c:v>0.78317869890235203</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2990877168546899</c:v>
+                  <c:v>0.76761515262161195</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.3019447936752699</c:v>
+                  <c:v>0.77338322814571703</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.2724254668628201</c:v>
+                  <c:v>0.77929089614286295</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2347624580976799</c:v>
+                  <c:v>0.80058731853206799</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.1934613077362</c:v>
+                  <c:v>0.83242859118649004</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.1534443493811399</c:v>
+                  <c:v>0.84798300479253896</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.11681362573319</c:v>
+                  <c:v>0.89575850896445497</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.06571248766043</c:v>
+                  <c:v>0.93547206997255505</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0219861231657099</c:v>
+                  <c:v>0.95978125905697498</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.98623966815219399</c:v>
+                  <c:v>0.99755805119052998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.94698033339613796</c:v>
+                  <c:v>1.0382196623961799</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.92095085428353396</c:v>
+                  <c:v>1.06303804897358</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.89888446996529803</c:v>
+                  <c:v>1.0903405729545399</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.88543197341013102</c:v>
+                  <c:v>1.10790750614879</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.87138966776007099</c:v>
+                  <c:v>1.11571030804072</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.86678071851549898</c:v>
+                  <c:v>1.1283417787232799</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.85784210158719298</c:v>
+                  <c:v>1.1330379649379301</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.85628153899764703</c:v>
+                  <c:v>1.1242567783800701</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.86456409420772196</c:v>
+                  <c:v>1.10984216495267</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.88488058001945802</c:v>
+                  <c:v>1.10160331019585</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.89702764956984404</c:v>
+                  <c:v>1.0846067218859401</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.92533018887018403</c:v>
+                  <c:v>1.06957610125359</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.94309682330605005</c:v>
+                  <c:v>1.048523216889</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.96786113426345</c:v>
+                  <c:v>1.01605595657056</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.99803093570705403</c:v>
+                  <c:v>1.0003271503664399</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.0171364769685101</c:v>
+                  <c:v>0.97793710633659203</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0370675602110599</c:v>
+                  <c:v>0.97055378848604901</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.0519645093400101</c:v>
+                  <c:v>0.94424062973130296</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.07220814114131</c:v>
+                  <c:v>0.93975681055844196</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.0832426800471799</c:v>
+                  <c:v>0.93396838465186605</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.08946326276594</c:v>
+                  <c:v>0.92082453829213695</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.08913097836788</c:v>
+                  <c:v>0.92464104515796097</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.09150020421913</c:v>
+                  <c:v>0.92453937278030196</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.08457191592227</c:v>
+                  <c:v>0.92760813817802401</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.0678784232165399</c:v>
+                  <c:v>0.937790558585607</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.05907435472565</c:v>
+                  <c:v>0.94432437058934304</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.04820475621264</c:v>
+                  <c:v>0.951772998201589</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.03351547124206</c:v>
+                  <c:v>0.96640455866270403</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.0203056526847201</c:v>
+                  <c:v>0.97893548908584405</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.0057287537623201</c:v>
+                  <c:v>0.99791716641893902</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.98541970191190198</c:v>
+                  <c:v>1.00407607938425</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.97497570318291304</c:v>
+                  <c:v>1.02269778341194</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.96186081996214101</c:v>
+                  <c:v>1.0319667259836101</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.95586092760068198</c:v>
+                  <c:v>1.0406220336181899</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.94844977248524198</c:v>
+                  <c:v>1.0438250495497801</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.94595983029566</c:v>
+                  <c:v>1.0508941374261001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.94629170087880898</c:v>
+                  <c:v>1.04511336570973</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.94785119416590002</c:v>
+                  <c:v>1.04143750879149</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.94401434006359297</c:v>
+                  <c:v>1.04162545382477</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.95296196455954696</c:v>
+                  <c:v>1.04059020765558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5604,7 +5604,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cl-Cl (Large)</c:v>
+                  <c:v>Na-Cl (Large)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5986,256 +5986,256 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.21491762484921E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1.0636551507659801E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.21037506357595401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1.1303314916834699</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2.5700760345542499</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3.5226827536988199</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.0943066085645305E-4</c:v>
+                  <c:v>3.5834727969504998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.0506545333132304E-3</c:v>
+                  <c:v>3.0404109134004802</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.5382961743264998E-2</c:v>
+                  <c:v>2.3510158607392801</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.130564798901246</c:v>
+                  <c:v>1.76946246126173</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.28342107111875697</c:v>
+                  <c:v>1.3435305243456499</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.53975623133594597</c:v>
+                  <c:v>1.0711667495559301</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.83795103040594798</c:v>
+                  <c:v>0.85335258681656501</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.11730479540216</c:v>
+                  <c:v>0.72387323931533898</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3667933251598501</c:v>
+                  <c:v>0.63400300527563302</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.5777331369215499</c:v>
+                  <c:v>0.583344984659247</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.6888586179515299</c:v>
+                  <c:v>0.54749627334041095</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7413513100029001</c:v>
+                  <c:v>0.52505567699650102</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.7529107230345999</c:v>
+                  <c:v>0.52601622190834396</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.6889512630944901</c:v>
+                  <c:v>0.53806624399901404</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.63175128763247</c:v>
+                  <c:v>0.55521296042780599</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.52037923549821</c:v>
+                  <c:v>0.57876650913058103</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.41359220001198</c:v>
+                  <c:v>0.61475633863479995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3279103038431801</c:v>
+                  <c:v>0.65622039022617396</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2157757944216101</c:v>
+                  <c:v>0.699757135184921</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.13579096618117</c:v>
+                  <c:v>0.76875131182866896</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.05585673441425</c:v>
+                  <c:v>0.83567809717406505</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.00665326577442</c:v>
+                  <c:v>0.90656721499970006</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.93390843783341404</c:v>
+                  <c:v>0.97389401642778295</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.86297015807711996</c:v>
+                  <c:v>1.0571231658323901</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.80752524640241297</c:v>
+                  <c:v>1.1262284401306699</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.76140059154664197</c:v>
+                  <c:v>1.1827199192648701</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.75090594607189498</c:v>
+                  <c:v>1.2375493297196001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.73485157651760902</c:v>
+                  <c:v>1.27978485246771</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.71010293535969105</c:v>
+                  <c:v>1.2990877168546899</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.71469964600902602</c:v>
+                  <c:v>1.3019447936752699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.73238831345659305</c:v>
+                  <c:v>1.2724254668628201</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.74776713181413201</c:v>
+                  <c:v>1.2347624580976799</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.78380786665098401</c:v>
+                  <c:v>1.1934613077362</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.82445302127320197</c:v>
+                  <c:v>1.1534443493811399</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.87314998803128296</c:v>
+                  <c:v>1.11681362573319</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.90912408173717096</c:v>
+                  <c:v>1.06571248766043</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.95777518442418796</c:v>
+                  <c:v>1.0219861231657099</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.00471289407987</c:v>
+                  <c:v>0.98623966815219399</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0622623975290899</c:v>
+                  <c:v>0.94698033339613796</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.10603964094889</c:v>
+                  <c:v>0.92095085428353396</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.1454563096691499</c:v>
+                  <c:v>0.89888446996529803</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.1706015643651699</c:v>
+                  <c:v>0.88543197341013102</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.1684552088318201</c:v>
+                  <c:v>0.87138966776007099</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.17158032695675</c:v>
+                  <c:v>0.86678071851549898</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.16825389478178</c:v>
+                  <c:v>0.85784210158719298</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1555842584039699</c:v>
+                  <c:v>0.85628153899764703</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.13765100234969</c:v>
+                  <c:v>0.86456409420772196</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.12806383010564</c:v>
+                  <c:v>0.88488058001945802</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0983149034211099</c:v>
+                  <c:v>0.89702764956984404</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.0677285436362201</c:v>
+                  <c:v>0.92533018887018403</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.0495749539580601</c:v>
+                  <c:v>0.94309682330605005</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.0165917463612699</c:v>
+                  <c:v>0.96786113426345</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.99416351660963098</c:v>
+                  <c:v>0.99803093570705403</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.96771094071437103</c:v>
+                  <c:v>1.0171364769685101</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.94902508478568404</c:v>
+                  <c:v>1.0370675602110599</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.92777110954865205</c:v>
+                  <c:v>1.0519645093400101</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.91138264669010705</c:v>
+                  <c:v>1.07220814114131</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.91043798375289398</c:v>
+                  <c:v>1.0832426800471799</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.899900748405009</c:v>
+                  <c:v>1.08946326276594</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.90692654913130399</c:v>
+                  <c:v>1.08913097836788</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.90947211558449903</c:v>
+                  <c:v>1.09150020421913</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.91459494776911698</c:v>
+                  <c:v>1.08457191592227</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.91970402951618402</c:v>
+                  <c:v>1.0678784232165399</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.93657682892971394</c:v>
+                  <c:v>1.05907435472565</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.95283075420817998</c:v>
+                  <c:v>1.04820475621264</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.95770592195768001</c:v>
+                  <c:v>1.03351547124206</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.973009278504261</c:v>
+                  <c:v>1.0203056526847201</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.99613687689704</c:v>
+                  <c:v>1.0057287537623201</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.01111073198407</c:v>
+                  <c:v>0.98541970191190198</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.0182445144654799</c:v>
+                  <c:v>0.97497570318291304</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.0342955877400399</c:v>
+                  <c:v>0.96186081996214101</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.0445033711066301</c:v>
+                  <c:v>0.95586092760068198</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.06127684535814</c:v>
+                  <c:v>0.94844977248524198</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.05850561385919</c:v>
+                  <c:v>0.94595983029566</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.0636014677156</c:v>
+                  <c:v>0.94629170087880898</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.0669466608612701</c:v>
+                  <c:v>0.94785119416590002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0553397107390301</c:v>
+                  <c:v>0.94401434006359297</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.0508573312777001</c:v>
+                  <c:v>0.95296196455954696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16113,22 +16113,22 @@
             <v>Cl-Cl</v>
           </cell>
           <cell r="CC2" t="str">
+            <v>R</v>
+          </cell>
+          <cell r="CD2" t="str">
             <v>Na-Na (Small)</v>
           </cell>
-          <cell r="CD2" t="str">
+          <cell r="CE2" t="str">
             <v>Na-Cl (Small)</v>
           </cell>
-          <cell r="CE2" t="str">
-            <v>Cl-Cl (Small)</v>
-          </cell>
           <cell r="CI2" t="str">
+            <v>R</v>
+          </cell>
+          <cell r="CJ2" t="str">
             <v>Na-Na (Large)</v>
           </cell>
-          <cell r="CJ2" t="str">
+          <cell r="CK2" t="str">
             <v>Na-Cl (Large)</v>
-          </cell>
-          <cell r="CK2" t="str">
-            <v>Cl-Cl (Large)</v>
           </cell>
         </row>
         <row r="3">
@@ -16163,7 +16163,7 @@
             <v>3.5000000000000003E-2</v>
           </cell>
           <cell r="CC3">
-            <v>0</v>
+            <v>3.5000000000000003E-2</v>
           </cell>
           <cell r="CD3">
             <v>0</v>
@@ -16175,7 +16175,7 @@
             <v>5.9999999999999901E-2</v>
           </cell>
           <cell r="CI3">
-            <v>0</v>
+            <v>5.9999999999999901E-2</v>
           </cell>
           <cell r="CJ3">
             <v>0</v>
@@ -16216,7 +16216,7 @@
             <v>0.104999999999999</v>
           </cell>
           <cell r="CC4">
-            <v>0</v>
+            <v>0.104999999999999</v>
           </cell>
           <cell r="CD4">
             <v>0</v>
@@ -16228,7 +16228,7 @@
             <v>0.17999999999999899</v>
           </cell>
           <cell r="CI4">
-            <v>0</v>
+            <v>0.17999999999999899</v>
           </cell>
           <cell r="CJ4">
             <v>0</v>
@@ -16269,7 +16269,7 @@
             <v>0.17499999999999899</v>
           </cell>
           <cell r="CC5">
-            <v>0</v>
+            <v>0.17499999999999899</v>
           </cell>
           <cell r="CD5">
             <v>0</v>
@@ -16281,7 +16281,7 @@
             <v>0.29999999999999899</v>
           </cell>
           <cell r="CI5">
-            <v>0</v>
+            <v>0.29999999999999899</v>
           </cell>
           <cell r="CJ5">
             <v>0</v>
@@ -16322,7 +16322,7 @@
             <v>0.244999999999999</v>
           </cell>
           <cell r="CC6">
-            <v>0</v>
+            <v>0.244999999999999</v>
           </cell>
           <cell r="CD6">
             <v>0</v>
@@ -16334,7 +16334,7 @@
             <v>0.41999999999999899</v>
           </cell>
           <cell r="CI6">
-            <v>0</v>
+            <v>0.41999999999999899</v>
           </cell>
           <cell r="CJ6">
             <v>0</v>
@@ -16375,7 +16375,7 @@
             <v>0.315</v>
           </cell>
           <cell r="CC7">
-            <v>0</v>
+            <v>0.315</v>
           </cell>
           <cell r="CD7">
             <v>0</v>
@@ -16387,7 +16387,7 @@
             <v>0.54</v>
           </cell>
           <cell r="CI7">
-            <v>0</v>
+            <v>0.54</v>
           </cell>
           <cell r="CJ7">
             <v>0</v>
@@ -16428,7 +16428,7 @@
             <v>0.38500000000000001</v>
           </cell>
           <cell r="CC8">
-            <v>0</v>
+            <v>0.38500000000000001</v>
           </cell>
           <cell r="CD8">
             <v>0</v>
@@ -16440,7 +16440,7 @@
             <v>0.66</v>
           </cell>
           <cell r="CI8">
-            <v>0</v>
+            <v>0.66</v>
           </cell>
           <cell r="CJ8">
             <v>0</v>
@@ -16481,7 +16481,7 @@
             <v>0.45500000000000002</v>
           </cell>
           <cell r="CC9">
-            <v>0</v>
+            <v>0.45500000000000002</v>
           </cell>
           <cell r="CD9">
             <v>0</v>
@@ -16493,7 +16493,7 @@
             <v>0.78</v>
           </cell>
           <cell r="CI9">
-            <v>0</v>
+            <v>0.78</v>
           </cell>
           <cell r="CJ9">
             <v>0</v>
@@ -16534,7 +16534,7 @@
             <v>0.52500000000000002</v>
           </cell>
           <cell r="CC10">
-            <v>0</v>
+            <v>0.52500000000000002</v>
           </cell>
           <cell r="CD10">
             <v>0</v>
@@ -16546,7 +16546,7 @@
             <v>0.9</v>
           </cell>
           <cell r="CI10">
-            <v>0</v>
+            <v>0.9</v>
           </cell>
           <cell r="CJ10">
             <v>0</v>
@@ -16587,7 +16587,7 @@
             <v>0.59499999999999897</v>
           </cell>
           <cell r="CC11">
-            <v>0</v>
+            <v>0.59499999999999897</v>
           </cell>
           <cell r="CD11">
             <v>0</v>
@@ -16599,7 +16599,7 @@
             <v>1.02</v>
           </cell>
           <cell r="CI11">
-            <v>0</v>
+            <v>1.02</v>
           </cell>
           <cell r="CJ11">
             <v>0</v>
@@ -16640,7 +16640,7 @@
             <v>0.66500000000000004</v>
           </cell>
           <cell r="CC12">
-            <v>0</v>
+            <v>0.66500000000000004</v>
           </cell>
           <cell r="CD12">
             <v>0</v>
@@ -16652,7 +16652,7 @@
             <v>1.1399999999999899</v>
           </cell>
           <cell r="CI12">
-            <v>0</v>
+            <v>1.1399999999999899</v>
           </cell>
           <cell r="CJ12">
             <v>0</v>
@@ -16693,7 +16693,7 @@
             <v>0.73499999999999899</v>
           </cell>
           <cell r="CC13">
-            <v>0</v>
+            <v>0.73499999999999899</v>
           </cell>
           <cell r="CD13">
             <v>0</v>
@@ -16705,7 +16705,7 @@
             <v>1.26</v>
           </cell>
           <cell r="CI13">
-            <v>0</v>
+            <v>1.26</v>
           </cell>
           <cell r="CJ13">
             <v>0</v>
@@ -16746,7 +16746,7 @@
             <v>0.80500000000000005</v>
           </cell>
           <cell r="CC14">
-            <v>0</v>
+            <v>0.80500000000000005</v>
           </cell>
           <cell r="CD14">
             <v>0</v>
@@ -16758,7 +16758,7 @@
             <v>1.3799999999999899</v>
           </cell>
           <cell r="CI14">
-            <v>0</v>
+            <v>1.3799999999999899</v>
           </cell>
           <cell r="CJ14">
             <v>0</v>
@@ -16799,7 +16799,7 @@
             <v>0.875</v>
           </cell>
           <cell r="CC15">
-            <v>0</v>
+            <v>0.875</v>
           </cell>
           <cell r="CD15">
             <v>0</v>
@@ -16811,7 +16811,7 @@
             <v>1.5</v>
           </cell>
           <cell r="CI15">
-            <v>0</v>
+            <v>1.5</v>
           </cell>
           <cell r="CJ15">
             <v>0</v>
@@ -16852,7 +16852,7 @@
             <v>0.94499999999999895</v>
           </cell>
           <cell r="CC16">
-            <v>0</v>
+            <v>0.94499999999999895</v>
           </cell>
           <cell r="CD16">
             <v>0</v>
@@ -16864,7 +16864,7 @@
             <v>1.62</v>
           </cell>
           <cell r="CI16">
-            <v>0</v>
+            <v>1.62</v>
           </cell>
           <cell r="CJ16">
             <v>0</v>
@@ -16905,7 +16905,7 @@
             <v>1.0149999999999899</v>
           </cell>
           <cell r="CC17">
-            <v>0</v>
+            <v>1.0149999999999899</v>
           </cell>
           <cell r="CD17">
             <v>0</v>
@@ -16917,7 +16917,7 @@
             <v>1.73999999999999</v>
           </cell>
           <cell r="CI17">
-            <v>0</v>
+            <v>1.73999999999999</v>
           </cell>
           <cell r="CJ17">
             <v>0</v>
@@ -16958,7 +16958,7 @@
             <v>1.08499999999999</v>
           </cell>
           <cell r="CC18">
-            <v>0</v>
+            <v>1.08499999999999</v>
           </cell>
           <cell r="CD18">
             <v>0</v>
@@ -16970,7 +16970,7 @@
             <v>1.86</v>
           </cell>
           <cell r="CI18">
-            <v>0</v>
+            <v>1.86</v>
           </cell>
           <cell r="CJ18">
             <v>0</v>
@@ -17011,7 +17011,7 @@
             <v>1.155</v>
           </cell>
           <cell r="CC19">
-            <v>0</v>
+            <v>1.155</v>
           </cell>
           <cell r="CD19">
             <v>0</v>
@@ -17023,13 +17023,13 @@
             <v>1.97999999999999</v>
           </cell>
           <cell r="CI19">
+            <v>1.97999999999999</v>
+          </cell>
+          <cell r="CJ19">
             <v>0</v>
           </cell>
-          <cell r="CJ19">
+          <cell r="CK19">
             <v>2.21491762484921E-4</v>
-          </cell>
-          <cell r="CK19">
-            <v>0</v>
           </cell>
         </row>
         <row r="20">
@@ -17064,7 +17064,7 @@
             <v>1.2250000000000001</v>
           </cell>
           <cell r="CC20">
-            <v>0</v>
+            <v>1.2250000000000001</v>
           </cell>
           <cell r="CD20">
             <v>0</v>
@@ -17076,13 +17076,13 @@
             <v>2.1</v>
           </cell>
           <cell r="CI20">
+            <v>2.1</v>
+          </cell>
+          <cell r="CJ20">
             <v>0</v>
           </cell>
-          <cell r="CJ20">
+          <cell r="CK20">
             <v>1.0636551507659801E-2</v>
-          </cell>
-          <cell r="CK20">
-            <v>0</v>
           </cell>
         </row>
         <row r="21">
@@ -17117,7 +17117,7 @@
             <v>1.2949999999999899</v>
           </cell>
           <cell r="CC21">
-            <v>0</v>
+            <v>1.2949999999999899</v>
           </cell>
           <cell r="CD21">
             <v>0</v>
@@ -17129,13 +17129,13 @@
             <v>2.2200000000000002</v>
           </cell>
           <cell r="CI21">
+            <v>2.2200000000000002</v>
+          </cell>
+          <cell r="CJ21">
             <v>3.84491905247285E-4</v>
           </cell>
-          <cell r="CJ21">
+          <cell r="CK21">
             <v>0.21037506357595401</v>
-          </cell>
-          <cell r="CK21">
-            <v>0</v>
           </cell>
         </row>
         <row r="22">
@@ -17170,7 +17170,7 @@
             <v>1.36499999999999</v>
           </cell>
           <cell r="CC22">
-            <v>0</v>
+            <v>1.36499999999999</v>
           </cell>
           <cell r="CD22">
             <v>0</v>
@@ -17182,13 +17182,13 @@
             <v>2.3399999999999901</v>
           </cell>
           <cell r="CI22">
+            <v>2.3399999999999901</v>
+          </cell>
+          <cell r="CJ22">
             <v>2.4191945291917902E-3</v>
           </cell>
-          <cell r="CJ22">
+          <cell r="CK22">
             <v>1.1303314916834699</v>
-          </cell>
-          <cell r="CK22">
-            <v>0</v>
           </cell>
         </row>
         <row r="23">
@@ -17223,7 +17223,7 @@
             <v>1.4350000000000001</v>
           </cell>
           <cell r="CC23">
-            <v>0</v>
+            <v>1.4350000000000001</v>
           </cell>
           <cell r="CD23">
             <v>0</v>
@@ -17235,13 +17235,13 @@
             <v>2.4599999999999902</v>
           </cell>
           <cell r="CI23">
+            <v>2.4599999999999902</v>
+          </cell>
+          <cell r="CJ23">
             <v>1.09345811555488E-2</v>
           </cell>
-          <cell r="CJ23">
+          <cell r="CK23">
             <v>2.5700760345542499</v>
-          </cell>
-          <cell r="CK23">
-            <v>0</v>
           </cell>
         </row>
         <row r="24">
@@ -17276,7 +17276,7 @@
             <v>1.5049999999999899</v>
           </cell>
           <cell r="CC24">
-            <v>0</v>
+            <v>1.5049999999999899</v>
           </cell>
           <cell r="CD24">
             <v>0</v>
@@ -17288,13 +17288,13 @@
             <v>2.58</v>
           </cell>
           <cell r="CI24">
+            <v>2.58</v>
+          </cell>
+          <cell r="CJ24">
             <v>2.6386918300200998E-2</v>
           </cell>
-          <cell r="CJ24">
+          <cell r="CK24">
             <v>3.5226827536988199</v>
-          </cell>
-          <cell r="CK24">
-            <v>0</v>
           </cell>
         </row>
         <row r="25">
@@ -17329,7 +17329,7 @@
             <v>1.57499999999999</v>
           </cell>
           <cell r="CC25">
-            <v>0</v>
+            <v>1.57499999999999</v>
           </cell>
           <cell r="CD25">
             <v>0</v>
@@ -17341,13 +17341,13 @@
             <v>2.7</v>
           </cell>
           <cell r="CI25">
+            <v>2.7</v>
+          </cell>
+          <cell r="CJ25">
             <v>6.5649441198110198E-2</v>
           </cell>
-          <cell r="CJ25">
+          <cell r="CK25">
             <v>3.5834727969504998</v>
-          </cell>
-          <cell r="CK25">
-            <v>7.0943066085645305E-4</v>
           </cell>
         </row>
         <row r="26">
@@ -17382,7 +17382,7 @@
             <v>1.645</v>
           </cell>
           <cell r="CC26">
-            <v>0</v>
+            <v>1.645</v>
           </cell>
           <cell r="CD26">
             <v>0</v>
@@ -17394,13 +17394,13 @@
             <v>2.8199999999999901</v>
           </cell>
           <cell r="CI26">
+            <v>2.8199999999999901</v>
+          </cell>
+          <cell r="CJ26">
             <v>0.14052963554819001</v>
           </cell>
-          <cell r="CJ26">
+          <cell r="CK26">
             <v>3.0404109134004802</v>
-          </cell>
-          <cell r="CK26">
-            <v>9.0506545333132304E-3</v>
           </cell>
         </row>
         <row r="27">
@@ -17435,7 +17435,7 @@
             <v>1.7150000000000001</v>
           </cell>
           <cell r="CC27">
-            <v>0</v>
+            <v>1.7150000000000001</v>
           </cell>
           <cell r="CD27">
             <v>0</v>
@@ -17447,13 +17447,13 @@
             <v>2.9399999999999902</v>
           </cell>
           <cell r="CI27">
+            <v>2.9399999999999902</v>
+          </cell>
+          <cell r="CJ27">
             <v>0.24221116508471999</v>
           </cell>
-          <cell r="CJ27">
+          <cell r="CK27">
             <v>2.3510158607392801</v>
-          </cell>
-          <cell r="CK27">
-            <v>4.5382961743264998E-2</v>
           </cell>
         </row>
         <row r="28">
@@ -17488,7 +17488,7 @@
             <v>1.7849999999999899</v>
           </cell>
           <cell r="CC28">
-            <v>0</v>
+            <v>1.7849999999999899</v>
           </cell>
           <cell r="CD28">
             <v>0</v>
@@ -17500,13 +17500,13 @@
             <v>3.06</v>
           </cell>
           <cell r="CI28">
+            <v>3.06</v>
+          </cell>
+          <cell r="CJ28">
             <v>0.40276567354121401</v>
           </cell>
-          <cell r="CJ28">
+          <cell r="CK28">
             <v>1.76946246126173</v>
-          </cell>
-          <cell r="CK28">
-            <v>0.130564798901246</v>
           </cell>
         </row>
         <row r="29">
@@ -17541,7 +17541,7 @@
             <v>1.85499999999999</v>
           </cell>
           <cell r="CC29">
-            <v>0</v>
+            <v>1.85499999999999</v>
           </cell>
           <cell r="CD29">
             <v>0</v>
@@ -17553,13 +17553,13 @@
             <v>3.18</v>
           </cell>
           <cell r="CI29">
+            <v>3.18</v>
+          </cell>
+          <cell r="CJ29">
             <v>0.61774698164507402</v>
           </cell>
-          <cell r="CJ29">
+          <cell r="CK29">
             <v>1.3435305243456499</v>
-          </cell>
-          <cell r="CK29">
-            <v>0.28342107111875697</v>
           </cell>
         </row>
         <row r="30">
@@ -17594,7 +17594,7 @@
             <v>1.925</v>
           </cell>
           <cell r="CC30">
-            <v>0</v>
+            <v>1.925</v>
           </cell>
           <cell r="CD30">
             <v>0</v>
@@ -17606,13 +17606,13 @@
             <v>3.2999999999999901</v>
           </cell>
           <cell r="CI30">
+            <v>3.2999999999999901</v>
+          </cell>
+          <cell r="CJ30">
             <v>0.83418339574487099</v>
           </cell>
-          <cell r="CJ30">
+          <cell r="CK30">
             <v>1.0711667495559301</v>
-          </cell>
-          <cell r="CK30">
-            <v>0.53975623133594597</v>
           </cell>
         </row>
         <row r="31">
@@ -17647,25 +17647,25 @@
             <v>1.9950000000000001</v>
           </cell>
           <cell r="CC31">
+            <v>1.9950000000000001</v>
+          </cell>
+          <cell r="CD31">
             <v>2.1262026924528298E-5</v>
           </cell>
-          <cell r="CD31">
+          <cell r="CE31">
             <v>1.3819933531320701E-4</v>
-          </cell>
-          <cell r="CE31">
-            <v>0</v>
           </cell>
           <cell r="CH31">
             <v>3.4199999999999902</v>
           </cell>
           <cell r="CI31">
+            <v>3.4199999999999902</v>
+          </cell>
+          <cell r="CJ31">
             <v>1.0340656545345901</v>
           </cell>
-          <cell r="CJ31">
+          <cell r="CK31">
             <v>0.85335258681656501</v>
-          </cell>
-          <cell r="CK31">
-            <v>0.83795103040594798</v>
           </cell>
         </row>
         <row r="32">
@@ -17700,25 +17700,25 @@
             <v>2.0649999999999902</v>
           </cell>
           <cell r="CC32">
+            <v>2.0649999999999902</v>
+          </cell>
+          <cell r="CD32">
             <v>1.5875689898867901E-4</v>
           </cell>
-          <cell r="CD32">
+          <cell r="CE32">
             <v>2.4504442398584798E-3</v>
-          </cell>
-          <cell r="CE32">
-            <v>0</v>
           </cell>
           <cell r="CH32">
             <v>3.54</v>
           </cell>
           <cell r="CI32">
+            <v>3.54</v>
+          </cell>
+          <cell r="CJ32">
             <v>1.21278811581113</v>
           </cell>
-          <cell r="CJ32">
+          <cell r="CK32">
             <v>0.72387323931533898</v>
-          </cell>
-          <cell r="CK32">
-            <v>1.11730479540216</v>
           </cell>
         </row>
         <row r="33">
@@ -17753,25 +17753,25 @@
             <v>2.13499999999999</v>
           </cell>
           <cell r="CC33">
+            <v>2.13499999999999</v>
+          </cell>
+          <cell r="CD33">
             <v>1.9411921390000001E-4</v>
           </cell>
-          <cell r="CD33">
+          <cell r="CE33">
             <v>2.4696426247547101E-2</v>
-          </cell>
-          <cell r="CE33">
-            <v>0</v>
           </cell>
           <cell r="CH33">
             <v>3.66</v>
           </cell>
           <cell r="CI33">
+            <v>3.66</v>
+          </cell>
+          <cell r="CJ33">
             <v>1.36210790082036</v>
           </cell>
-          <cell r="CJ33">
+          <cell r="CK33">
             <v>0.63400300527563302</v>
-          </cell>
-          <cell r="CK33">
-            <v>1.3667933251598501</v>
           </cell>
         </row>
         <row r="34">
@@ -17806,25 +17806,25 @@
             <v>2.2050000000000001</v>
           </cell>
           <cell r="CC34">
+            <v>2.2050000000000001</v>
+          </cell>
+          <cell r="CD34">
             <v>3.1495554568301799E-4</v>
           </cell>
-          <cell r="CD34">
+          <cell r="CE34">
             <v>0.14430267987314899</v>
-          </cell>
-          <cell r="CE34">
-            <v>0</v>
           </cell>
           <cell r="CH34">
             <v>3.77999999999999</v>
           </cell>
           <cell r="CI34">
+            <v>3.77999999999999</v>
+          </cell>
+          <cell r="CJ34">
             <v>1.45741776448708</v>
           </cell>
-          <cell r="CJ34">
+          <cell r="CK34">
             <v>0.583344984659247</v>
-          </cell>
-          <cell r="CK34">
-            <v>1.5777331369215499</v>
           </cell>
         </row>
         <row r="35">
@@ -17859,25 +17859,25 @@
             <v>2.2749999999999901</v>
           </cell>
           <cell r="CC35">
+            <v>2.2749999999999901</v>
+          </cell>
+          <cell r="CD35">
             <v>1.0274789119264101E-3</v>
           </cell>
-          <cell r="CD35">
+          <cell r="CE35">
             <v>0.48453188798164798</v>
-          </cell>
-          <cell r="CE35">
-            <v>0</v>
           </cell>
           <cell r="CH35">
             <v>3.8999999999999901</v>
           </cell>
           <cell r="CI35">
+            <v>3.8999999999999901</v>
+          </cell>
+          <cell r="CJ35">
             <v>1.47419709805285</v>
           </cell>
-          <cell r="CJ35">
+          <cell r="CK35">
             <v>0.54749627334041095</v>
-          </cell>
-          <cell r="CK35">
-            <v>1.6888586179515299</v>
           </cell>
         </row>
         <row r="36">
@@ -17912,25 +17912,25 @@
             <v>2.3450000000000002</v>
           </cell>
           <cell r="CC36">
+            <v>2.3450000000000002</v>
+          </cell>
+          <cell r="CD36">
             <v>2.4076747199283E-3</v>
           </cell>
-          <cell r="CD36">
+          <cell r="CE36">
             <v>1.17065251951661</v>
-          </cell>
-          <cell r="CE36">
-            <v>0</v>
           </cell>
           <cell r="CH36">
             <v>4.0199999999999898</v>
           </cell>
           <cell r="CI36">
+            <v>4.0199999999999898</v>
+          </cell>
+          <cell r="CJ36">
             <v>1.4644109265667899</v>
           </cell>
-          <cell r="CJ36">
+          <cell r="CK36">
             <v>0.52505567699650102</v>
-          </cell>
-          <cell r="CK36">
-            <v>1.7413513100029001</v>
           </cell>
         </row>
         <row r="37">
@@ -17965,25 +17965,25 @@
             <v>2.415</v>
           </cell>
           <cell r="CC37">
+            <v>2.415</v>
+          </cell>
+          <cell r="CD37">
             <v>5.6138487529528297E-3</v>
           </cell>
-          <cell r="CD37">
+          <cell r="CE37">
             <v>2.0427197324870199</v>
-          </cell>
-          <cell r="CE37">
-            <v>0</v>
           </cell>
           <cell r="CH37">
             <v>4.1399999999999899</v>
           </cell>
           <cell r="CI37">
+            <v>4.1399999999999899</v>
+          </cell>
+          <cell r="CJ37">
             <v>1.46333449695488</v>
           </cell>
-          <cell r="CJ37">
+          <cell r="CK37">
             <v>0.52601622190834396</v>
-          </cell>
-          <cell r="CK37">
-            <v>1.7529107230345999</v>
           </cell>
         </row>
         <row r="38">
@@ -18018,25 +18018,25 @@
             <v>2.4849999999999901</v>
           </cell>
           <cell r="CC38">
+            <v>2.4849999999999901</v>
+          </cell>
+          <cell r="CD38">
             <v>1.09269672793075E-2</v>
           </cell>
-          <cell r="CD38">
+          <cell r="CE38">
             <v>2.8698226963873399</v>
-          </cell>
-          <cell r="CE38">
-            <v>0</v>
           </cell>
           <cell r="CH38">
             <v>4.25999999999999</v>
           </cell>
           <cell r="CI38">
+            <v>4.25999999999999</v>
+          </cell>
+          <cell r="CJ38">
             <v>1.43359596936588</v>
           </cell>
-          <cell r="CJ38">
+          <cell r="CK38">
             <v>0.53806624399901404</v>
-          </cell>
-          <cell r="CK38">
-            <v>1.6889512630944901</v>
           </cell>
         </row>
         <row r="39">
@@ -18071,25 +18071,25 @@
             <v>2.5550000000000002</v>
           </cell>
           <cell r="CC39">
+            <v>2.5550000000000002</v>
+          </cell>
+          <cell r="CD39">
             <v>2.1350221992254701E-2</v>
           </cell>
-          <cell r="CD39">
+          <cell r="CE39">
             <v>3.45018897758729</v>
-          </cell>
-          <cell r="CE39">
-            <v>0</v>
           </cell>
           <cell r="CH39">
             <v>4.3799999999999901</v>
           </cell>
           <cell r="CI39">
+            <v>4.3799999999999901</v>
+          </cell>
+          <cell r="CJ39">
             <v>1.36903278016912</v>
           </cell>
-          <cell r="CJ39">
+          <cell r="CK39">
             <v>0.55521296042780599</v>
-          </cell>
-          <cell r="CK39">
-            <v>1.63175128763247</v>
           </cell>
         </row>
         <row r="40">
@@ -18124,25 +18124,25 @@
             <v>2.625</v>
           </cell>
           <cell r="CC40">
+            <v>2.625</v>
+          </cell>
+          <cell r="CD40">
             <v>3.88267383797831E-2</v>
           </cell>
-          <cell r="CD40">
+          <cell r="CE40">
             <v>3.6671492635713299</v>
-          </cell>
-          <cell r="CE40">
-            <v>2.3848901507924499E-4</v>
           </cell>
           <cell r="CH40">
             <v>4.5</v>
           </cell>
           <cell r="CI40">
+            <v>4.5</v>
+          </cell>
+          <cell r="CJ40">
             <v>1.3175723164817601</v>
           </cell>
-          <cell r="CJ40">
+          <cell r="CK40">
             <v>0.57876650913058103</v>
-          </cell>
-          <cell r="CK40">
-            <v>1.52037923549821</v>
           </cell>
         </row>
         <row r="41">
@@ -18177,25 +18177,25 @@
             <v>2.6949999999999901</v>
           </cell>
           <cell r="CC41">
+            <v>2.6949999999999901</v>
+          </cell>
+          <cell r="CD41">
             <v>6.2757550156413197E-2</v>
           </cell>
-          <cell r="CD41">
+          <cell r="CE41">
             <v>3.60010405298903</v>
-          </cell>
-          <cell r="CE41">
-            <v>1.12407900316603E-3</v>
           </cell>
           <cell r="CH41">
             <v>4.62</v>
           </cell>
           <cell r="CI41">
+            <v>4.62</v>
+          </cell>
+          <cell r="CJ41">
             <v>1.27355438805225</v>
           </cell>
-          <cell r="CJ41">
+          <cell r="CK41">
             <v>0.61475633863479995</v>
-          </cell>
-          <cell r="CK41">
-            <v>1.41359220001198</v>
           </cell>
         </row>
         <row r="42">
@@ -18230,25 +18230,25 @@
             <v>2.7650000000000001</v>
           </cell>
           <cell r="CC42">
+            <v>2.7650000000000001</v>
+          </cell>
+          <cell r="CD42">
             <v>0.102420144333604</v>
           </cell>
-          <cell r="CD42">
+          <cell r="CE42">
             <v>3.2999254146096</v>
-          </cell>
-          <cell r="CE42">
-            <v>3.3136933220075399E-3</v>
           </cell>
           <cell r="CH42">
             <v>4.74</v>
           </cell>
           <cell r="CI42">
+            <v>4.74</v>
+          </cell>
+          <cell r="CJ42">
             <v>1.23898334878053</v>
           </cell>
-          <cell r="CJ42">
+          <cell r="CK42">
             <v>0.65622039022617396</v>
-          </cell>
-          <cell r="CK42">
-            <v>1.3279103038431801</v>
           </cell>
         </row>
         <row r="43">
@@ -18283,25 +18283,25 @@
             <v>2.8349999999999902</v>
           </cell>
           <cell r="CC43">
+            <v>2.8349999999999902</v>
+          </cell>
+          <cell r="CD43">
             <v>0.14472374997908199</v>
           </cell>
-          <cell r="CD43">
+          <cell r="CE43">
             <v>2.9216723880195299</v>
-          </cell>
-          <cell r="CE43">
-            <v>9.1665782505641405E-3</v>
           </cell>
           <cell r="CH43">
             <v>4.8600000000000003</v>
           </cell>
           <cell r="CI43">
+            <v>4.8600000000000003</v>
+          </cell>
+          <cell r="CJ43">
             <v>1.1792476815098101</v>
           </cell>
-          <cell r="CJ43">
+          <cell r="CK43">
             <v>0.699757135184921</v>
-          </cell>
-          <cell r="CK43">
-            <v>1.2157757944216101</v>
           </cell>
         </row>
         <row r="44">
@@ -18336,25 +18336,25 @@
             <v>2.90499999999999</v>
           </cell>
           <cell r="CC44">
+            <v>2.90499999999999</v>
+          </cell>
+          <cell r="CD44">
             <v>0.21395463857392399</v>
           </cell>
-          <cell r="CD44">
+          <cell r="CE44">
             <v>2.5175317941264499</v>
-          </cell>
-          <cell r="CE44">
-            <v>2.3803013868303802E-2</v>
           </cell>
           <cell r="CH44">
             <v>4.9800000000000004</v>
           </cell>
           <cell r="CI44">
+            <v>4.9800000000000004</v>
+          </cell>
+          <cell r="CJ44">
             <v>1.1479515254249699</v>
           </cell>
-          <cell r="CJ44">
+          <cell r="CK44">
             <v>0.76875131182866896</v>
-          </cell>
-          <cell r="CK44">
-            <v>1.13579096618117</v>
           </cell>
         </row>
         <row r="45">
@@ -18389,25 +18389,25 @@
             <v>2.9750000000000001</v>
           </cell>
           <cell r="CC45">
+            <v>2.9750000000000001</v>
+          </cell>
+          <cell r="CD45">
             <v>0.29564866537879497</v>
           </cell>
-          <cell r="CD45">
+          <cell r="CE45">
             <v>2.1559799779311102</v>
-          </cell>
-          <cell r="CE45">
-            <v>5.3263919422822603E-2</v>
           </cell>
           <cell r="CH45">
             <v>5.0999999999999899</v>
           </cell>
           <cell r="CI45">
+            <v>5.0999999999999899</v>
+          </cell>
+          <cell r="CJ45">
             <v>1.1037123913911899</v>
           </cell>
-          <cell r="CJ45">
+          <cell r="CK45">
             <v>0.83567809717406505</v>
-          </cell>
-          <cell r="CK45">
-            <v>1.05585673441425</v>
           </cell>
         </row>
         <row r="46">
@@ -18442,25 +18442,25 @@
             <v>3.0449999999999902</v>
           </cell>
           <cell r="CC46">
+            <v>3.0449999999999902</v>
+          </cell>
+          <cell r="CD46">
             <v>0.38976368778547799</v>
           </cell>
-          <cell r="CD46">
+          <cell r="CE46">
             <v>1.8315853473829</v>
-          </cell>
-          <cell r="CE46">
-            <v>0.111028296796881</v>
           </cell>
           <cell r="CH46">
             <v>5.21999999999999</v>
           </cell>
           <cell r="CI46">
+            <v>5.21999999999999</v>
+          </cell>
+          <cell r="CJ46">
             <v>1.0743233194448101</v>
           </cell>
-          <cell r="CJ46">
+          <cell r="CK46">
             <v>0.90656721499970006</v>
-          </cell>
-          <cell r="CK46">
-            <v>1.00665326577442</v>
           </cell>
         </row>
         <row r="47">
@@ -18495,25 +18495,25 @@
             <v>3.1150000000000002</v>
           </cell>
           <cell r="CC47">
+            <v>3.1150000000000002</v>
+          </cell>
+          <cell r="CD47">
             <v>0.49143900997640999</v>
           </cell>
-          <cell r="CD47">
+          <cell r="CE47">
             <v>1.5486550348886201</v>
-          </cell>
-          <cell r="CE47">
-            <v>0.18916390500347399</v>
           </cell>
           <cell r="CH47">
             <v>5.3399999999999901</v>
           </cell>
           <cell r="CI47">
+            <v>5.3399999999999901</v>
+          </cell>
+          <cell r="CJ47">
             <v>1.02649375113429</v>
           </cell>
-          <cell r="CJ47">
+          <cell r="CK47">
             <v>0.97389401642778295</v>
-          </cell>
-          <cell r="CK47">
-            <v>0.93390843783341404</v>
           </cell>
         </row>
         <row r="48">
@@ -18548,25 +18548,25 @@
             <v>3.1850000000000001</v>
           </cell>
           <cell r="CC48">
+            <v>3.1850000000000001</v>
+          </cell>
+          <cell r="CD48">
             <v>0.60697369478296304</v>
           </cell>
-          <cell r="CD48">
+          <cell r="CE48">
             <v>1.32729036109576</v>
-          </cell>
-          <cell r="CE48">
-            <v>0.28713967347832797</v>
           </cell>
           <cell r="CH48">
             <v>5.4599999999999902</v>
           </cell>
           <cell r="CI48">
+            <v>5.4599999999999902</v>
+          </cell>
+          <cell r="CJ48">
             <v>0.95329197678658695</v>
           </cell>
-          <cell r="CJ48">
+          <cell r="CK48">
             <v>1.0571231658323901</v>
-          </cell>
-          <cell r="CK48">
-            <v>0.86297015807711996</v>
           </cell>
         </row>
         <row r="49">
@@ -18601,25 +18601,25 @@
             <v>3.2549999999999901</v>
           </cell>
           <cell r="CC49">
+            <v>3.2549999999999901</v>
+          </cell>
+          <cell r="CD49">
             <v>0.73305607238394599</v>
           </cell>
-          <cell r="CD49">
+          <cell r="CE49">
             <v>1.1539167818782901</v>
-          </cell>
-          <cell r="CE49">
-            <v>0.41374008826552899</v>
           </cell>
           <cell r="CH49">
             <v>5.58</v>
           </cell>
           <cell r="CI49">
+            <v>5.58</v>
+          </cell>
+          <cell r="CJ49">
             <v>0.91180527911204201</v>
           </cell>
-          <cell r="CJ49">
+          <cell r="CK49">
             <v>1.1262284401306699</v>
-          </cell>
-          <cell r="CK49">
-            <v>0.80752524640241297</v>
           </cell>
         </row>
         <row r="50">
@@ -18654,25 +18654,25 @@
             <v>3.3250000000000002</v>
           </cell>
           <cell r="CC50">
+            <v>3.3250000000000002</v>
+          </cell>
+          <cell r="CD50">
             <v>0.84826586521277902</v>
           </cell>
-          <cell r="CD50">
+          <cell r="CE50">
             <v>1.0035660598817</v>
-          </cell>
-          <cell r="CE50">
-            <v>0.554904993927128</v>
           </cell>
           <cell r="CH50">
             <v>5.7</v>
           </cell>
           <cell r="CI50">
+            <v>5.7</v>
+          </cell>
+          <cell r="CJ50">
             <v>0.84926553480892797</v>
           </cell>
-          <cell r="CJ50">
+          <cell r="CK50">
             <v>1.1827199192648701</v>
-          </cell>
-          <cell r="CK50">
-            <v>0.76140059154664197</v>
           </cell>
         </row>
         <row r="51">
@@ -18707,25 +18707,25 @@
             <v>3.395</v>
           </cell>
           <cell r="CC51">
+            <v>3.395</v>
+          </cell>
+          <cell r="CD51">
             <v>0.97447790780334598</v>
           </cell>
-          <cell r="CD51">
+          <cell r="CE51">
             <v>0.88362777057744302</v>
-          </cell>
-          <cell r="CE51">
-            <v>0.72070809988822704</v>
           </cell>
           <cell r="CH51">
             <v>5.82</v>
           </cell>
           <cell r="CI51">
+            <v>5.82</v>
+          </cell>
+          <cell r="CJ51">
             <v>0.81121028257428496</v>
           </cell>
-          <cell r="CJ51">
+          <cell r="CK51">
             <v>1.2375493297196001</v>
-          </cell>
-          <cell r="CK51">
-            <v>0.75090594607189498</v>
           </cell>
         </row>
         <row r="52">
@@ -18760,25 +18760,25 @@
             <v>3.4649999999999901</v>
           </cell>
           <cell r="CC52">
+            <v>3.4649999999999901</v>
+          </cell>
+          <cell r="CD52">
             <v>1.08197308388853</v>
           </cell>
-          <cell r="CD52">
+          <cell r="CE52">
             <v>0.79396938484310697</v>
-          </cell>
-          <cell r="CE52">
-            <v>0.89643841563594096</v>
           </cell>
           <cell r="CH52">
             <v>5.94</v>
           </cell>
           <cell r="CI52">
+            <v>5.94</v>
+          </cell>
+          <cell r="CJ52">
             <v>0.78317869890235203</v>
           </cell>
-          <cell r="CJ52">
+          <cell r="CK52">
             <v>1.27978485246771</v>
-          </cell>
-          <cell r="CK52">
-            <v>0.73485157651760902</v>
           </cell>
         </row>
         <row r="53">
@@ -18813,25 +18813,25 @@
             <v>3.5350000000000001</v>
           </cell>
           <cell r="CC53">
+            <v>3.5350000000000001</v>
+          </cell>
+          <cell r="CD53">
             <v>1.17418569602036</v>
           </cell>
-          <cell r="CD53">
+          <cell r="CE53">
             <v>0.71784327043132101</v>
-          </cell>
-          <cell r="CE53">
-            <v>1.07889584765133</v>
           </cell>
           <cell r="CH53">
             <v>6.0599999999999898</v>
           </cell>
           <cell r="CI53">
+            <v>6.0599999999999898</v>
+          </cell>
+          <cell r="CJ53">
             <v>0.76761515262161195</v>
           </cell>
-          <cell r="CJ53">
+          <cell r="CK53">
             <v>1.2990877168546899</v>
-          </cell>
-          <cell r="CK53">
-            <v>0.71010293535969105</v>
           </cell>
         </row>
         <row r="54">
@@ -18866,25 +18866,25 @@
             <v>3.6049999999999902</v>
           </cell>
           <cell r="CC54">
+            <v>3.6049999999999902</v>
+          </cell>
+          <cell r="CD54">
             <v>1.2541409503757801</v>
           </cell>
-          <cell r="CD54">
+          <cell r="CE54">
             <v>0.66073346903616503</v>
-          </cell>
-          <cell r="CE54">
-            <v>1.24431528702784</v>
           </cell>
           <cell r="CH54">
             <v>6.1799999999999899</v>
           </cell>
           <cell r="CI54">
+            <v>6.1799999999999899</v>
+          </cell>
+          <cell r="CJ54">
             <v>0.77338322814571703</v>
           </cell>
-          <cell r="CJ54">
+          <cell r="CK54">
             <v>1.3019447936752699</v>
-          </cell>
-          <cell r="CK54">
-            <v>0.71469964600902602</v>
           </cell>
         </row>
         <row r="55">
@@ -18919,25 +18919,25 @@
             <v>3.6749999999999901</v>
           </cell>
           <cell r="CC55">
+            <v>3.6749999999999901</v>
+          </cell>
+          <cell r="CD55">
             <v>1.32499429301675</v>
           </cell>
-          <cell r="CD55">
+          <cell r="CE55">
             <v>0.62410260893910496</v>
-          </cell>
-          <cell r="CE55">
-            <v>1.3788716426679399</v>
           </cell>
           <cell r="CH55">
             <v>6.2999999999999901</v>
           </cell>
           <cell r="CI55">
+            <v>6.2999999999999901</v>
+          </cell>
+          <cell r="CJ55">
             <v>0.77929089614286295</v>
           </cell>
-          <cell r="CJ55">
+          <cell r="CK55">
             <v>1.2724254668628201</v>
-          </cell>
-          <cell r="CK55">
-            <v>0.73238831345659305</v>
           </cell>
         </row>
         <row r="56">
@@ -18972,25 +18972,25 @@
             <v>3.7450000000000001</v>
           </cell>
           <cell r="CC56">
+            <v>3.7450000000000001</v>
+          </cell>
+          <cell r="CD56">
             <v>1.38205410721203</v>
           </cell>
-          <cell r="CD56">
+          <cell r="CE56">
             <v>0.59781849045890401</v>
-          </cell>
-          <cell r="CE56">
-            <v>1.5225457000649301</v>
           </cell>
           <cell r="CH56">
             <v>6.4199999999999902</v>
           </cell>
           <cell r="CI56">
+            <v>6.4199999999999902</v>
+          </cell>
+          <cell r="CJ56">
             <v>0.80058731853206799</v>
           </cell>
-          <cell r="CJ56">
+          <cell r="CK56">
             <v>1.2347624580976799</v>
-          </cell>
-          <cell r="CK56">
-            <v>0.74776713181413201</v>
           </cell>
         </row>
         <row r="57">
@@ -19025,25 +19025,25 @@
             <v>3.8149999999999902</v>
           </cell>
           <cell r="CC57">
+            <v>3.8149999999999902</v>
+          </cell>
+          <cell r="CD57">
             <v>1.43143286845329</v>
           </cell>
-          <cell r="CD57">
+          <cell r="CE57">
             <v>0.56853535336012795</v>
-          </cell>
-          <cell r="CE57">
-            <v>1.6108321165725401</v>
           </cell>
           <cell r="CH57">
             <v>6.54</v>
           </cell>
           <cell r="CI57">
+            <v>6.54</v>
+          </cell>
+          <cell r="CJ57">
             <v>0.83242859118649004</v>
           </cell>
-          <cell r="CJ57">
+          <cell r="CK57">
             <v>1.1934613077362</v>
-          </cell>
-          <cell r="CK57">
-            <v>0.78380786665098401</v>
           </cell>
         </row>
         <row r="58">
@@ -19078,25 +19078,25 @@
             <v>3.88499999999999</v>
           </cell>
           <cell r="CC58">
+            <v>3.88499999999999</v>
+          </cell>
+          <cell r="CD58">
             <v>1.4640982895625401</v>
           </cell>
-          <cell r="CD58">
+          <cell r="CE58">
             <v>0.54257290804563596</v>
-          </cell>
-          <cell r="CE58">
-            <v>1.66890889177344</v>
           </cell>
           <cell r="CH58">
             <v>6.66</v>
           </cell>
           <cell r="CI58">
+            <v>6.66</v>
+          </cell>
+          <cell r="CJ58">
             <v>0.84798300479253896</v>
           </cell>
-          <cell r="CJ58">
+          <cell r="CK58">
             <v>1.1534443493811399</v>
-          </cell>
-          <cell r="CK58">
-            <v>0.82445302127320197</v>
           </cell>
         </row>
         <row r="59">
@@ -19131,25 +19131,25 @@
             <v>3.9550000000000001</v>
           </cell>
           <cell r="CC59">
+            <v>3.9550000000000001</v>
+          </cell>
+          <cell r="CD59">
             <v>1.48341025976317</v>
           </cell>
-          <cell r="CD59">
+          <cell r="CE59">
             <v>0.52987644785311805</v>
-          </cell>
-          <cell r="CE59">
-            <v>1.73009121465759</v>
           </cell>
           <cell r="CH59">
             <v>6.78</v>
           </cell>
           <cell r="CI59">
+            <v>6.78</v>
+          </cell>
+          <cell r="CJ59">
             <v>0.89575850896445497</v>
           </cell>
-          <cell r="CJ59">
+          <cell r="CK59">
             <v>1.11681362573319</v>
-          </cell>
-          <cell r="CK59">
-            <v>0.87314998803128296</v>
           </cell>
         </row>
         <row r="60">
@@ -19184,25 +19184,25 @@
             <v>4.0250000000000004</v>
           </cell>
           <cell r="CC60">
+            <v>4.0250000000000004</v>
+          </cell>
+          <cell r="CD60">
             <v>1.48939533631184</v>
           </cell>
-          <cell r="CD60">
+          <cell r="CE60">
             <v>0.53164056117152103</v>
-          </cell>
-          <cell r="CE60">
-            <v>1.76525118206128</v>
           </cell>
           <cell r="CH60">
             <v>6.9</v>
           </cell>
           <cell r="CI60">
+            <v>6.9</v>
+          </cell>
+          <cell r="CJ60">
             <v>0.93547206997255505</v>
           </cell>
-          <cell r="CJ60">
+          <cell r="CK60">
             <v>1.06571248766043</v>
-          </cell>
-          <cell r="CK60">
-            <v>0.90912408173717096</v>
           </cell>
         </row>
         <row r="61">
@@ -19237,25 +19237,25 @@
             <v>4.09499999999999</v>
           </cell>
           <cell r="CC61">
+            <v>4.09499999999999</v>
+          </cell>
+          <cell r="CD61">
             <v>1.47713285713107</v>
           </cell>
-          <cell r="CD61">
+          <cell r="CE61">
             <v>0.52734244402937203</v>
-          </cell>
-          <cell r="CE61">
-            <v>1.75857509901942</v>
           </cell>
           <cell r="CH61">
             <v>7.0199999999999898</v>
           </cell>
           <cell r="CI61">
+            <v>7.0199999999999898</v>
+          </cell>
+          <cell r="CJ61">
             <v>0.95978125905697498</v>
           </cell>
-          <cell r="CJ61">
+          <cell r="CK61">
             <v>1.0219861231657099</v>
-          </cell>
-          <cell r="CK61">
-            <v>0.95777518442418796</v>
           </cell>
         </row>
         <row r="62">
@@ -19290,25 +19290,25 @@
             <v>4.165</v>
           </cell>
           <cell r="CC62">
+            <v>4.165</v>
+          </cell>
+          <cell r="CD62">
             <v>1.4674858055242099</v>
           </cell>
-          <cell r="CD62">
+          <cell r="CE62">
             <v>0.52171677764468605</v>
-          </cell>
-          <cell r="CE62">
-            <v>1.7454310292927699</v>
           </cell>
           <cell r="CH62">
             <v>7.1399999999999899</v>
           </cell>
           <cell r="CI62">
+            <v>7.1399999999999899</v>
+          </cell>
+          <cell r="CJ62">
             <v>0.99755805119052998</v>
           </cell>
-          <cell r="CJ62">
+          <cell r="CK62">
             <v>0.98623966815219399</v>
-          </cell>
-          <cell r="CK62">
-            <v>1.00471289407987</v>
           </cell>
         </row>
         <row r="63">
@@ -19343,25 +19343,25 @@
             <v>4.2350000000000003</v>
           </cell>
           <cell r="CC63">
+            <v>4.2350000000000003</v>
+          </cell>
+          <cell r="CD63">
             <v>1.4437733101805801</v>
           </cell>
-          <cell r="CD63">
+          <cell r="CE63">
             <v>0.52590952659293899</v>
-          </cell>
-          <cell r="CE63">
-            <v>1.7053963694938401</v>
           </cell>
           <cell r="CH63">
             <v>7.25999999999999</v>
           </cell>
           <cell r="CI63">
+            <v>7.25999999999999</v>
+          </cell>
+          <cell r="CJ63">
             <v>1.0382196623961799</v>
           </cell>
-          <cell r="CJ63">
+          <cell r="CK63">
             <v>0.94698033339613796</v>
-          </cell>
-          <cell r="CK63">
-            <v>1.0622623975290899</v>
           </cell>
         </row>
         <row r="64">
@@ -19396,25 +19396,25 @@
             <v>4.3049999999999899</v>
           </cell>
           <cell r="CC64">
+            <v>4.3049999999999899</v>
+          </cell>
+          <cell r="CD64">
             <v>1.40854337450392</v>
           </cell>
-          <cell r="CD64">
+          <cell r="CE64">
             <v>0.53609988499897099</v>
-          </cell>
-          <cell r="CE64">
-            <v>1.66567073841062</v>
           </cell>
           <cell r="CH64">
             <v>7.3799999999999901</v>
           </cell>
           <cell r="CI64">
+            <v>7.3799999999999901</v>
+          </cell>
+          <cell r="CJ64">
             <v>1.06303804897358</v>
           </cell>
-          <cell r="CJ64">
+          <cell r="CK64">
             <v>0.92095085428353396</v>
-          </cell>
-          <cell r="CK64">
-            <v>1.10603964094889</v>
           </cell>
         </row>
         <row r="65">
@@ -19449,25 +19449,25 @@
             <v>4.375</v>
           </cell>
           <cell r="CC65">
+            <v>4.375</v>
+          </cell>
+          <cell r="CD65">
             <v>1.3818876684980399</v>
           </cell>
-          <cell r="CD65">
+          <cell r="CE65">
             <v>0.54537832956718102</v>
-          </cell>
-          <cell r="CE65">
-            <v>1.6366084202981499</v>
           </cell>
           <cell r="CH65">
             <v>7.5</v>
           </cell>
           <cell r="CI65">
+            <v>7.5</v>
+          </cell>
+          <cell r="CJ65">
             <v>1.0903405729545399</v>
           </cell>
-          <cell r="CJ65">
+          <cell r="CK65">
             <v>0.89888446996529803</v>
-          </cell>
-          <cell r="CK65">
-            <v>1.1454563096691499</v>
           </cell>
         </row>
         <row r="66">
@@ -19502,25 +19502,25 @@
             <v>4.4450000000000003</v>
           </cell>
           <cell r="CC66">
+            <v>4.4450000000000003</v>
+          </cell>
+          <cell r="CD66">
             <v>1.3482741192971901</v>
           </cell>
-          <cell r="CD66">
+          <cell r="CE66">
             <v>0.55911691177327405</v>
-          </cell>
-          <cell r="CE66">
-            <v>1.58500037910665</v>
           </cell>
           <cell r="CH66">
             <v>7.62</v>
           </cell>
           <cell r="CI66">
+            <v>7.62</v>
+          </cell>
+          <cell r="CJ66">
             <v>1.10790750614879</v>
           </cell>
-          <cell r="CJ66">
+          <cell r="CK66">
             <v>0.88543197341013102</v>
-          </cell>
-          <cell r="CK66">
-            <v>1.1706015643651699</v>
           </cell>
         </row>
         <row r="67">
@@ -19555,25 +19555,25 @@
             <v>4.5149999999999899</v>
           </cell>
           <cell r="CC67">
+            <v>4.5149999999999899</v>
+          </cell>
+          <cell r="CD67">
             <v>1.3140907494015499</v>
           </cell>
-          <cell r="CD67">
+          <cell r="CE67">
             <v>0.57705188647718997</v>
-          </cell>
-          <cell r="CE67">
-            <v>1.51131229227268</v>
           </cell>
           <cell r="CH67">
             <v>7.74</v>
           </cell>
           <cell r="CI67">
+            <v>7.74</v>
+          </cell>
+          <cell r="CJ67">
             <v>1.11571030804072</v>
           </cell>
-          <cell r="CJ67">
+          <cell r="CK67">
             <v>0.87138966776007099</v>
-          </cell>
-          <cell r="CK67">
-            <v>1.1684552088318201</v>
           </cell>
         </row>
         <row r="68">
@@ -19608,25 +19608,25 @@
             <v>4.5849999999999902</v>
           </cell>
           <cell r="CC68">
+            <v>4.5849999999999902</v>
+          </cell>
+          <cell r="CD68">
             <v>1.2979667711373599</v>
           </cell>
-          <cell r="CD68">
+          <cell r="CE68">
             <v>0.59308295534816702</v>
-          </cell>
-          <cell r="CE68">
-            <v>1.44724539123947</v>
           </cell>
           <cell r="CH68">
             <v>7.86</v>
           </cell>
           <cell r="CI68">
+            <v>7.86</v>
+          </cell>
+          <cell r="CJ68">
             <v>1.1283417787232799</v>
           </cell>
-          <cell r="CJ68">
+          <cell r="CK68">
             <v>0.86678071851549898</v>
-          </cell>
-          <cell r="CK68">
-            <v>1.17158032695675</v>
           </cell>
         </row>
         <row r="69">
@@ -19661,25 +19661,25 @@
             <v>4.6550000000000002</v>
           </cell>
           <cell r="CC69">
+            <v>4.6550000000000002</v>
+          </cell>
+          <cell r="CD69">
             <v>1.2745909295629601</v>
           </cell>
-          <cell r="CD69">
+          <cell r="CE69">
             <v>0.61430801802271295</v>
-          </cell>
-          <cell r="CE69">
-            <v>1.3885189994013001</v>
           </cell>
           <cell r="CH69">
             <v>7.98</v>
           </cell>
           <cell r="CI69">
+            <v>7.98</v>
+          </cell>
+          <cell r="CJ69">
             <v>1.1330379649379301</v>
           </cell>
-          <cell r="CJ69">
+          <cell r="CK69">
             <v>0.85784210158719298</v>
-          </cell>
-          <cell r="CK69">
-            <v>1.16825389478178</v>
           </cell>
         </row>
         <row r="70">
@@ -19714,25 +19714,25 @@
             <v>4.7249999999999899</v>
           </cell>
           <cell r="CC70">
+            <v>4.7249999999999899</v>
+          </cell>
+          <cell r="CD70">
             <v>1.24424541773217</v>
           </cell>
-          <cell r="CD70">
+          <cell r="CE70">
             <v>0.64070624672000298</v>
-          </cell>
-          <cell r="CE70">
-            <v>1.3351772314567401</v>
           </cell>
           <cell r="CH70">
             <v>8.0999999999999908</v>
           </cell>
           <cell r="CI70">
+            <v>8.0999999999999908</v>
+          </cell>
+          <cell r="CJ70">
             <v>1.1242567783800701</v>
           </cell>
-          <cell r="CJ70">
+          <cell r="CK70">
             <v>0.85628153899764703</v>
-          </cell>
-          <cell r="CK70">
-            <v>1.1555842584039699</v>
           </cell>
         </row>
         <row r="71">
@@ -19767,25 +19767,25 @@
             <v>4.7949999999999902</v>
           </cell>
           <cell r="CC71">
+            <v>4.7949999999999902</v>
+          </cell>
+          <cell r="CD71">
             <v>1.21699756884011</v>
           </cell>
-          <cell r="CD71">
+          <cell r="CE71">
             <v>0.67022452824038403</v>
-          </cell>
-          <cell r="CE71">
-            <v>1.2903530393837299</v>
           </cell>
           <cell r="CH71">
             <v>8.2200000000000006</v>
           </cell>
           <cell r="CI71">
+            <v>8.2200000000000006</v>
+          </cell>
+          <cell r="CJ71">
             <v>1.10984216495267</v>
           </cell>
-          <cell r="CJ71">
+          <cell r="CK71">
             <v>0.86456409420772196</v>
-          </cell>
-          <cell r="CK71">
-            <v>1.13765100234969</v>
           </cell>
         </row>
         <row r="72">
@@ -19820,25 +19820,25 @@
             <v>4.8650000000000002</v>
           </cell>
           <cell r="CC72">
+            <v>4.8650000000000002</v>
+          </cell>
+          <cell r="CD72">
             <v>1.1987677889798001</v>
           </cell>
-          <cell r="CD72">
+          <cell r="CE72">
             <v>0.70278017085856703</v>
-          </cell>
-          <cell r="CE72">
-            <v>1.2340724628556501</v>
           </cell>
           <cell r="CH72">
             <v>8.3399999999999892</v>
           </cell>
           <cell r="CI72">
+            <v>8.3399999999999892</v>
+          </cell>
+          <cell r="CJ72">
             <v>1.10160331019585</v>
           </cell>
-          <cell r="CJ72">
+          <cell r="CK72">
             <v>0.88488058001945802</v>
-          </cell>
-          <cell r="CK72">
-            <v>1.12806383010564</v>
           </cell>
         </row>
         <row r="73">
@@ -19873,25 +19873,25 @@
             <v>4.9349999999999898</v>
           </cell>
           <cell r="CC73">
+            <v>4.9349999999999898</v>
+          </cell>
+          <cell r="CD73">
             <v>1.1697110294067401</v>
           </cell>
-          <cell r="CD73">
+          <cell r="CE73">
             <v>0.73521584282641805</v>
-          </cell>
-          <cell r="CE73">
-            <v>1.1870885506146001</v>
           </cell>
           <cell r="CH73">
             <v>8.4600000000000009</v>
           </cell>
           <cell r="CI73">
+            <v>8.4600000000000009</v>
+          </cell>
+          <cell r="CJ73">
             <v>1.0846067218859401</v>
           </cell>
-          <cell r="CJ73">
+          <cell r="CK73">
             <v>0.89702764956984404</v>
-          </cell>
-          <cell r="CK73">
-            <v>1.0983149034211099</v>
           </cell>
         </row>
         <row r="74">
@@ -19926,25 +19926,25 @@
             <v>5.0049999999999901</v>
           </cell>
           <cell r="CC74">
+            <v>5.0049999999999901</v>
+          </cell>
+          <cell r="CD74">
             <v>1.15309059141867</v>
           </cell>
-          <cell r="CD74">
+          <cell r="CE74">
             <v>0.77884810040280905</v>
-          </cell>
-          <cell r="CE74">
-            <v>1.1452580907630101</v>
           </cell>
           <cell r="CH74">
             <v>8.58</v>
           </cell>
           <cell r="CI74">
+            <v>8.58</v>
+          </cell>
+          <cell r="CJ74">
             <v>1.06957610125359</v>
           </cell>
-          <cell r="CJ74">
+          <cell r="CK74">
             <v>0.92533018887018403</v>
-          </cell>
-          <cell r="CK74">
-            <v>1.0677285436362201</v>
           </cell>
         </row>
         <row r="75">
@@ -19979,25 +19979,25 @@
             <v>5.0750000000000002</v>
           </cell>
           <cell r="CC75">
+            <v>5.0750000000000002</v>
+          </cell>
+          <cell r="CD75">
             <v>1.12868271078275</v>
           </cell>
-          <cell r="CD75">
+          <cell r="CE75">
             <v>0.81660352076679399</v>
-          </cell>
-          <cell r="CE75">
-            <v>1.0971696711318799</v>
           </cell>
           <cell r="CH75">
             <v>8.6999999999999904</v>
           </cell>
           <cell r="CI75">
+            <v>8.6999999999999904</v>
+          </cell>
+          <cell r="CJ75">
             <v>1.048523216889</v>
           </cell>
-          <cell r="CJ75">
+          <cell r="CK75">
             <v>0.94309682330605005</v>
-          </cell>
-          <cell r="CK75">
-            <v>1.0495749539580601</v>
           </cell>
         </row>
         <row r="76">
@@ -20032,25 +20032,25 @@
             <v>5.1449999999999898</v>
           </cell>
           <cell r="CC76">
+            <v>5.1449999999999898</v>
+          </cell>
+          <cell r="CD76">
             <v>1.1097983881274001</v>
           </cell>
-          <cell r="CD76">
+          <cell r="CE76">
             <v>0.85841475964031899</v>
-          </cell>
-          <cell r="CE76">
-            <v>1.0501159547757599</v>
           </cell>
           <cell r="CH76">
             <v>8.82</v>
           </cell>
           <cell r="CI76">
+            <v>8.82</v>
+          </cell>
+          <cell r="CJ76">
             <v>1.01605595657056</v>
           </cell>
-          <cell r="CJ76">
+          <cell r="CK76">
             <v>0.96786113426345</v>
-          </cell>
-          <cell r="CK76">
-            <v>1.0165917463612699</v>
           </cell>
         </row>
         <row r="77">
@@ -20085,25 +20085,25 @@
             <v>5.2149999999999901</v>
           </cell>
           <cell r="CC77">
+            <v>5.2149999999999901</v>
+          </cell>
+          <cell r="CD77">
             <v>1.08512476467133</v>
           </cell>
-          <cell r="CD77">
+          <cell r="CE77">
             <v>0.90098895447539395</v>
-          </cell>
-          <cell r="CE77">
-            <v>1.02125712829445</v>
           </cell>
           <cell r="CH77">
             <v>8.9399999999999906</v>
           </cell>
           <cell r="CI77">
+            <v>8.9399999999999906</v>
+          </cell>
+          <cell r="CJ77">
             <v>1.0003271503664399</v>
           </cell>
-          <cell r="CJ77">
+          <cell r="CK77">
             <v>0.99803093570705403</v>
-          </cell>
-          <cell r="CK77">
-            <v>0.99416351660963098</v>
           </cell>
         </row>
         <row r="78">
@@ -20138,25 +20138,25 @@
             <v>5.2850000000000001</v>
           </cell>
           <cell r="CC78">
+            <v>5.2850000000000001</v>
+          </cell>
+          <cell r="CD78">
             <v>1.0568259326346201</v>
           </cell>
-          <cell r="CD78">
+          <cell r="CE78">
             <v>0.94637901302318606</v>
-          </cell>
-          <cell r="CE78">
-            <v>0.97577638998875604</v>
           </cell>
           <cell r="CH78">
             <v>9.06</v>
           </cell>
           <cell r="CI78">
+            <v>9.06</v>
+          </cell>
+          <cell r="CJ78">
             <v>0.97793710633659203</v>
           </cell>
-          <cell r="CJ78">
+          <cell r="CK78">
             <v>1.0171364769685101</v>
-          </cell>
-          <cell r="CK78">
-            <v>0.96771094071437103</v>
           </cell>
         </row>
         <row r="79">
@@ -20191,25 +20191,25 @@
             <v>5.3550000000000004</v>
           </cell>
           <cell r="CC79">
+            <v>5.3550000000000004</v>
+          </cell>
+          <cell r="CD79">
             <v>1.0173559106530601</v>
           </cell>
-          <cell r="CD79">
+          <cell r="CE79">
             <v>0.99314893662631398</v>
-          </cell>
-          <cell r="CE79">
-            <v>0.92993820879223199</v>
           </cell>
           <cell r="CH79">
             <v>9.1799999999999908</v>
           </cell>
           <cell r="CI79">
+            <v>9.1799999999999908</v>
+          </cell>
+          <cell r="CJ79">
             <v>0.97055378848604901</v>
           </cell>
-          <cell r="CJ79">
+          <cell r="CK79">
             <v>1.0370675602110599</v>
-          </cell>
-          <cell r="CK79">
-            <v>0.94902508478568404</v>
           </cell>
         </row>
         <row r="80">
@@ -20244,25 +20244,25 @@
             <v>5.4249999999999901</v>
           </cell>
           <cell r="CC80">
+            <v>5.4249999999999901</v>
+          </cell>
+          <cell r="CD80">
             <v>0.97854526753677396</v>
           </cell>
-          <cell r="CD80">
+          <cell r="CE80">
             <v>1.0386225781042999</v>
-          </cell>
-          <cell r="CE80">
-            <v>0.894132218505859</v>
           </cell>
           <cell r="CH80">
             <v>9.3000000000000007</v>
           </cell>
           <cell r="CI80">
+            <v>9.3000000000000007</v>
+          </cell>
+          <cell r="CJ80">
             <v>0.94424062973130296</v>
           </cell>
-          <cell r="CJ80">
+          <cell r="CK80">
             <v>1.0519645093400101</v>
-          </cell>
-          <cell r="CK80">
-            <v>0.92777110954865205</v>
           </cell>
         </row>
         <row r="81">
@@ -20297,25 +20297,25 @@
             <v>5.4950000000000001</v>
           </cell>
           <cell r="CC81">
+            <v>5.4950000000000001</v>
+          </cell>
+          <cell r="CD81">
             <v>0.94232519989765196</v>
           </cell>
-          <cell r="CD81">
+          <cell r="CE81">
             <v>1.08033953668654</v>
-          </cell>
-          <cell r="CE81">
-            <v>0.85507967671683904</v>
           </cell>
           <cell r="CH81">
             <v>9.4199999999999893</v>
           </cell>
           <cell r="CI81">
+            <v>9.4199999999999893</v>
+          </cell>
+          <cell r="CJ81">
             <v>0.93975681055844196</v>
           </cell>
-          <cell r="CJ81">
+          <cell r="CK81">
             <v>1.07220814114131</v>
-          </cell>
-          <cell r="CK81">
-            <v>0.91138264669010705</v>
           </cell>
         </row>
         <row r="82">
@@ -20350,25 +20350,25 @@
             <v>5.5650000000000004</v>
           </cell>
           <cell r="CC82">
+            <v>5.5650000000000004</v>
+          </cell>
+          <cell r="CD82">
             <v>0.90943076261900002</v>
           </cell>
-          <cell r="CD82">
+          <cell r="CE82">
             <v>1.1152442763946999</v>
-          </cell>
-          <cell r="CE82">
-            <v>0.82515641289817998</v>
           </cell>
           <cell r="CH82">
             <v>9.5399999999999903</v>
           </cell>
           <cell r="CI82">
+            <v>9.5399999999999903</v>
+          </cell>
+          <cell r="CJ82">
             <v>0.93396838465186605</v>
           </cell>
-          <cell r="CJ82">
+          <cell r="CK82">
             <v>1.0832426800471799</v>
-          </cell>
-          <cell r="CK82">
-            <v>0.91043798375289398</v>
           </cell>
         </row>
         <row r="83">
@@ -20403,25 +20403,25 @@
             <v>5.63499999999999</v>
           </cell>
           <cell r="CC83">
+            <v>5.63499999999999</v>
+          </cell>
+          <cell r="CD83">
             <v>0.88305875038904602</v>
           </cell>
-          <cell r="CD83">
+          <cell r="CE83">
             <v>1.1554655221623999</v>
-          </cell>
-          <cell r="CE83">
-            <v>0.79810891585200805</v>
           </cell>
           <cell r="CH83">
             <v>9.66</v>
           </cell>
           <cell r="CI83">
+            <v>9.66</v>
+          </cell>
+          <cell r="CJ83">
             <v>0.92082453829213695</v>
           </cell>
-          <cell r="CJ83">
+          <cell r="CK83">
             <v>1.08946326276594</v>
-          </cell>
-          <cell r="CK83">
-            <v>0.899900748405009</v>
           </cell>
         </row>
         <row r="84">
@@ -20456,25 +20456,25 @@
             <v>5.7050000000000001</v>
           </cell>
           <cell r="CC84">
+            <v>5.7050000000000001</v>
+          </cell>
+          <cell r="CD84">
             <v>0.85497901324248804</v>
           </cell>
-          <cell r="CD84">
+          <cell r="CE84">
             <v>1.1909803601233999</v>
-          </cell>
-          <cell r="CE84">
-            <v>0.77770125306986804</v>
           </cell>
           <cell r="CH84">
             <v>9.7799999999999905</v>
           </cell>
           <cell r="CI84">
+            <v>9.7799999999999905</v>
+          </cell>
+          <cell r="CJ84">
             <v>0.92464104515796097</v>
           </cell>
-          <cell r="CJ84">
+          <cell r="CK84">
             <v>1.08913097836788</v>
-          </cell>
-          <cell r="CK84">
-            <v>0.90692654913130399</v>
           </cell>
         </row>
         <row r="85">
@@ -20509,25 +20509,25 @@
             <v>5.7750000000000004</v>
           </cell>
           <cell r="CC85">
+            <v>5.7750000000000004</v>
+          </cell>
+          <cell r="CD85">
             <v>0.83170305401408096</v>
           </cell>
-          <cell r="CD85">
+          <cell r="CE85">
             <v>1.2276393572623701</v>
-          </cell>
-          <cell r="CE85">
-            <v>0.75650353618817001</v>
           </cell>
           <cell r="CH85">
             <v>9.9</v>
           </cell>
           <cell r="CI85">
+            <v>9.9</v>
+          </cell>
+          <cell r="CJ85">
             <v>0.92453937278030196</v>
           </cell>
-          <cell r="CJ85">
+          <cell r="CK85">
             <v>1.09150020421913</v>
-          </cell>
-          <cell r="CK85">
-            <v>0.90947211558449903</v>
           </cell>
         </row>
         <row r="86">
@@ -20562,25 +20562,25 @@
             <v>5.84499999999999</v>
           </cell>
           <cell r="CC86">
+            <v>5.84499999999999</v>
+          </cell>
+          <cell r="CD86">
             <v>0.80778627623975496</v>
           </cell>
-          <cell r="CD86">
+          <cell r="CE86">
             <v>1.2567365920714699</v>
-          </cell>
-          <cell r="CE86">
-            <v>0.73671742118513905</v>
           </cell>
           <cell r="CH86">
             <v>10.0199999999999</v>
           </cell>
           <cell r="CI86">
+            <v>10.0199999999999</v>
+          </cell>
+          <cell r="CJ86">
             <v>0.92760813817802401</v>
           </cell>
-          <cell r="CJ86">
+          <cell r="CK86">
             <v>1.08457191592227</v>
-          </cell>
-          <cell r="CK86">
-            <v>0.91459494776911698</v>
           </cell>
         </row>
         <row r="87">
@@ -20615,25 +20615,25 @@
             <v>5.915</v>
           </cell>
           <cell r="CC87">
+            <v>5.915</v>
+          </cell>
+          <cell r="CD87">
             <v>0.79678537648645198</v>
           </cell>
-          <cell r="CD87">
+          <cell r="CE87">
             <v>1.2752768009548501</v>
-          </cell>
-          <cell r="CE87">
-            <v>0.71759481025568395</v>
           </cell>
           <cell r="CH87">
             <v>10.14</v>
           </cell>
           <cell r="CI87">
+            <v>10.14</v>
+          </cell>
+          <cell r="CJ87">
             <v>0.937790558585607</v>
           </cell>
-          <cell r="CJ87">
+          <cell r="CK87">
             <v>1.0678784232165399</v>
-          </cell>
-          <cell r="CK87">
-            <v>0.91970402951618402</v>
           </cell>
         </row>
         <row r="88">
@@ -20668,25 +20668,25 @@
             <v>5.9850000000000003</v>
           </cell>
           <cell r="CC88">
+            <v>5.9850000000000003</v>
+          </cell>
+          <cell r="CD88">
             <v>0.78155824886511405</v>
           </cell>
-          <cell r="CD88">
+          <cell r="CE88">
             <v>1.2922765716823601</v>
-          </cell>
-          <cell r="CE88">
-            <v>0.71048706124615701</v>
           </cell>
           <cell r="CH88">
             <v>10.2599999999999</v>
           </cell>
           <cell r="CI88">
+            <v>10.2599999999999</v>
+          </cell>
+          <cell r="CJ88">
             <v>0.94432437058934304</v>
           </cell>
-          <cell r="CJ88">
+          <cell r="CK88">
             <v>1.05907435472565</v>
-          </cell>
-          <cell r="CK88">
-            <v>0.93657682892971394</v>
           </cell>
         </row>
         <row r="89">
@@ -20721,25 +20721,25 @@
             <v>6.0549999999999899</v>
           </cell>
           <cell r="CC89">
+            <v>6.0549999999999899</v>
+          </cell>
+          <cell r="CD89">
             <v>0.76919551293043398</v>
           </cell>
-          <cell r="CD89">
+          <cell r="CE89">
             <v>1.2926811285909401</v>
-          </cell>
-          <cell r="CE89">
-            <v>0.70258202230287603</v>
           </cell>
           <cell r="CH89">
             <v>10.38</v>
           </cell>
           <cell r="CI89">
+            <v>10.38</v>
+          </cell>
+          <cell r="CJ89">
             <v>0.951772998201589</v>
           </cell>
-          <cell r="CJ89">
+          <cell r="CK89">
             <v>1.04820475621264</v>
-          </cell>
-          <cell r="CK89">
-            <v>0.95283075420817998</v>
           </cell>
         </row>
         <row r="90">
@@ -20774,25 +20774,25 @@
             <v>6.125</v>
           </cell>
           <cell r="CC90">
+            <v>6.125</v>
+          </cell>
+          <cell r="CD90">
             <v>0.76737936873243595</v>
           </cell>
-          <cell r="CD90">
+          <cell r="CE90">
             <v>1.2947879337953401</v>
-          </cell>
-          <cell r="CE90">
-            <v>0.70293359117370702</v>
           </cell>
           <cell r="CH90">
             <v>10.5</v>
           </cell>
           <cell r="CI90">
+            <v>10.5</v>
+          </cell>
+          <cell r="CJ90">
             <v>0.96640455866270403</v>
           </cell>
-          <cell r="CJ90">
+          <cell r="CK90">
             <v>1.03351547124206</v>
-          </cell>
-          <cell r="CK90">
-            <v>0.95770592195768001</v>
           </cell>
         </row>
         <row r="91">
@@ -20827,25 +20827,25 @@
             <v>6.1950000000000003</v>
           </cell>
           <cell r="CC91">
+            <v>6.1950000000000003</v>
+          </cell>
+          <cell r="CD91">
             <v>0.77495473888523903</v>
           </cell>
-          <cell r="CD91">
+          <cell r="CE91">
             <v>1.29215855717783</v>
-          </cell>
-          <cell r="CE91">
-            <v>0.70241870106811299</v>
           </cell>
           <cell r="CH91">
             <v>10.6199999999999</v>
           </cell>
           <cell r="CI91">
+            <v>10.6199999999999</v>
+          </cell>
+          <cell r="CJ91">
             <v>0.97893548908584405</v>
           </cell>
-          <cell r="CJ91">
+          <cell r="CK91">
             <v>1.0203056526847201</v>
-          </cell>
-          <cell r="CK91">
-            <v>0.973009278504261</v>
           </cell>
         </row>
         <row r="92">
@@ -20880,25 +20880,25 @@
             <v>6.2649999999999899</v>
           </cell>
           <cell r="CC92">
+            <v>6.2649999999999899</v>
+          </cell>
+          <cell r="CD92">
             <v>0.770355780411074</v>
           </cell>
-          <cell r="CD92">
+          <cell r="CE92">
             <v>1.28660142767217</v>
-          </cell>
-          <cell r="CE92">
-            <v>0.71429829261921096</v>
           </cell>
           <cell r="CH92">
             <v>10.74</v>
           </cell>
           <cell r="CI92">
+            <v>10.74</v>
+          </cell>
+          <cell r="CJ92">
             <v>0.99791716641893902</v>
           </cell>
-          <cell r="CJ92">
+          <cell r="CK92">
             <v>1.0057287537623201</v>
-          </cell>
-          <cell r="CK92">
-            <v>0.99613687689704</v>
           </cell>
         </row>
         <row r="93">
@@ -20933,25 +20933,25 @@
             <v>6.3349999999999902</v>
           </cell>
           <cell r="CC93">
+            <v>6.3349999999999902</v>
+          </cell>
+          <cell r="CD93">
             <v>0.77542470795283203</v>
           </cell>
-          <cell r="CD93">
+          <cell r="CE93">
             <v>1.27751632518762</v>
-          </cell>
-          <cell r="CE93">
-            <v>0.71243999125939805</v>
           </cell>
           <cell r="CH93">
             <v>10.8599999999999</v>
           </cell>
           <cell r="CI93">
+            <v>10.8599999999999</v>
+          </cell>
+          <cell r="CJ93">
             <v>1.00407607938425</v>
           </cell>
-          <cell r="CJ93">
+          <cell r="CK93">
             <v>0.98541970191190198</v>
-          </cell>
-          <cell r="CK93">
-            <v>1.01111073198407</v>
           </cell>
         </row>
         <row r="94">
@@ -20986,25 +20986,25 @@
             <v>6.4050000000000002</v>
           </cell>
           <cell r="CC94">
+            <v>6.4050000000000002</v>
+          </cell>
+          <cell r="CD94">
             <v>0.78490357904198005</v>
           </cell>
-          <cell r="CD94">
+          <cell r="CE94">
             <v>1.2586671227428099</v>
-          </cell>
-          <cell r="CE94">
-            <v>0.73016621544360605</v>
           </cell>
           <cell r="CH94">
             <v>10.98</v>
           </cell>
           <cell r="CI94">
+            <v>10.98</v>
+          </cell>
+          <cell r="CJ94">
             <v>1.02269778341194</v>
           </cell>
-          <cell r="CJ94">
+          <cell r="CK94">
             <v>0.97497570318291304</v>
-          </cell>
-          <cell r="CK94">
-            <v>1.0182445144654799</v>
           </cell>
         </row>
         <row r="95">
@@ -21039,25 +21039,25 @@
             <v>6.4749999999999899</v>
           </cell>
           <cell r="CC95">
+            <v>6.4749999999999899</v>
+          </cell>
+          <cell r="CD95">
             <v>0.79304331353399904</v>
           </cell>
-          <cell r="CD95">
+          <cell r="CE95">
             <v>1.23681671684498</v>
-          </cell>
-          <cell r="CE95">
-            <v>0.74968520896874702</v>
           </cell>
           <cell r="CH95">
             <v>11.0999999999999</v>
           </cell>
           <cell r="CI95">
+            <v>11.0999999999999</v>
+          </cell>
+          <cell r="CJ95">
             <v>1.0319667259836101</v>
           </cell>
-          <cell r="CJ95">
+          <cell r="CK95">
             <v>0.96186081996214101</v>
-          </cell>
-          <cell r="CK95">
-            <v>1.0342955877400399</v>
           </cell>
         </row>
         <row r="96">
@@ -21092,25 +21092,25 @@
             <v>6.5449999999999902</v>
           </cell>
           <cell r="CC96">
+            <v>6.5449999999999902</v>
+          </cell>
+          <cell r="CD96">
             <v>0.81330228787027103</v>
           </cell>
-          <cell r="CD96">
+          <cell r="CE96">
             <v>1.2075195098534699</v>
-          </cell>
-          <cell r="CE96">
-            <v>0.76417154042284396</v>
           </cell>
           <cell r="CH96">
             <v>11.22</v>
           </cell>
           <cell r="CI96">
+            <v>11.22</v>
+          </cell>
+          <cell r="CJ96">
             <v>1.0406220336181899</v>
           </cell>
-          <cell r="CJ96">
+          <cell r="CK96">
             <v>0.95586092760068198</v>
-          </cell>
-          <cell r="CK96">
-            <v>1.0445033711066301</v>
           </cell>
         </row>
         <row r="97">
@@ -21145,25 +21145,25 @@
             <v>6.6150000000000002</v>
           </cell>
           <cell r="CC97">
+            <v>6.6150000000000002</v>
+          </cell>
+          <cell r="CD97">
             <v>0.8282089279532</v>
           </cell>
-          <cell r="CD97">
+          <cell r="CE97">
             <v>1.1811206605392399</v>
-          </cell>
-          <cell r="CE97">
-            <v>0.78886296982911797</v>
           </cell>
           <cell r="CH97">
             <v>11.3399999999999</v>
           </cell>
           <cell r="CI97">
+            <v>11.3399999999999</v>
+          </cell>
+          <cell r="CJ97">
             <v>1.0438250495497801</v>
           </cell>
-          <cell r="CJ97">
+          <cell r="CK97">
             <v>0.94844977248524198</v>
-          </cell>
-          <cell r="CK97">
-            <v>1.06127684535814</v>
           </cell>
         </row>
         <row r="98">
@@ -21198,25 +21198,25 @@
             <v>6.6849999999999898</v>
           </cell>
           <cell r="CC98">
+            <v>6.6849999999999898</v>
+          </cell>
+          <cell r="CD98">
             <v>0.84755823094674698</v>
           </cell>
-          <cell r="CD98">
+          <cell r="CE98">
             <v>1.16217900042849</v>
-          </cell>
-          <cell r="CE98">
-            <v>0.80992696639679695</v>
           </cell>
           <cell r="CH98">
             <v>11.46</v>
           </cell>
           <cell r="CI98">
+            <v>11.46</v>
+          </cell>
+          <cell r="CJ98">
             <v>1.0508941374261001</v>
           </cell>
-          <cell r="CJ98">
+          <cell r="CK98">
             <v>0.94595983029566</v>
-          </cell>
-          <cell r="CK98">
-            <v>1.05850561385919</v>
           </cell>
         </row>
         <row r="99">
@@ -21251,25 +21251,25 @@
             <v>6.7549999999999901</v>
           </cell>
           <cell r="CC99">
+            <v>6.7549999999999901</v>
+          </cell>
+          <cell r="CD99">
             <v>0.87100224201177601</v>
           </cell>
-          <cell r="CD99">
+          <cell r="CE99">
             <v>1.1267695589259501</v>
-          </cell>
-          <cell r="CE99">
-            <v>0.834973017798051</v>
           </cell>
           <cell r="CH99">
             <v>11.58</v>
           </cell>
           <cell r="CI99">
+            <v>11.58</v>
+          </cell>
+          <cell r="CJ99">
             <v>1.04511336570973</v>
           </cell>
-          <cell r="CJ99">
+          <cell r="CK99">
             <v>0.94629170087880898</v>
-          </cell>
-          <cell r="CK99">
-            <v>1.0636014677156</v>
           </cell>
         </row>
         <row r="100">
@@ -21304,25 +21304,25 @@
             <v>6.8250000000000002</v>
           </cell>
           <cell r="CC100">
+            <v>6.8250000000000002</v>
+          </cell>
+          <cell r="CD100">
             <v>0.89181436895741895</v>
           </cell>
-          <cell r="CD100">
+          <cell r="CE100">
             <v>1.09726565188049</v>
-          </cell>
-          <cell r="CE100">
-            <v>0.86272272729232902</v>
           </cell>
           <cell r="CH100">
             <v>11.6999999999999</v>
           </cell>
           <cell r="CI100">
+            <v>11.6999999999999</v>
+          </cell>
+          <cell r="CJ100">
             <v>1.04143750879149</v>
           </cell>
-          <cell r="CJ100">
+          <cell r="CK100">
             <v>0.94785119416590002</v>
-          </cell>
-          <cell r="CK100">
-            <v>1.0669466608612701</v>
           </cell>
         </row>
         <row r="101">
@@ -21357,25 +21357,25 @@
             <v>6.8949999999999898</v>
           </cell>
           <cell r="CC101">
+            <v>6.8949999999999898</v>
+          </cell>
+          <cell r="CD101">
             <v>0.91195630430874197</v>
           </cell>
-          <cell r="CD101">
+          <cell r="CE101">
             <v>1.06840231458848</v>
-          </cell>
-          <cell r="CE101">
-            <v>0.89189961619564795</v>
           </cell>
           <cell r="CH101">
             <v>11.82</v>
           </cell>
           <cell r="CI101">
+            <v>11.82</v>
+          </cell>
+          <cell r="CJ101">
             <v>1.04162545382477</v>
           </cell>
-          <cell r="CJ101">
+          <cell r="CK101">
             <v>0.94401434006359297</v>
-          </cell>
-          <cell r="CK101">
-            <v>1.0553397107390301</v>
           </cell>
         </row>
         <row r="102">
@@ -21410,25 +21410,25 @@
             <v>6.9649999999999901</v>
           </cell>
           <cell r="CC102">
+            <v>6.9649999999999901</v>
+          </cell>
+          <cell r="CD102">
             <v>0.93098184638004899</v>
           </cell>
-          <cell r="CD102">
+          <cell r="CE102">
             <v>1.0411710709620501</v>
-          </cell>
-          <cell r="CE102">
-            <v>0.92430636302526004</v>
           </cell>
           <cell r="CH102">
             <v>11.9399999999999</v>
           </cell>
           <cell r="CI102">
+            <v>11.9399999999999</v>
+          </cell>
+          <cell r="CJ102">
             <v>1.04059020765558</v>
           </cell>
-          <cell r="CJ102">
+          <cell r="CK102">
             <v>0.95296196455954696</v>
-          </cell>
-          <cell r="CK102">
-            <v>1.0508573312777001</v>
           </cell>
         </row>
         <row r="103">
@@ -21463,13 +21463,13 @@
             <v>7.0350000000000001</v>
           </cell>
           <cell r="CC103">
+            <v>7.0350000000000001</v>
+          </cell>
+          <cell r="CD103">
             <v>0.95828728027045096</v>
           </cell>
-          <cell r="CD103">
+          <cell r="CE103">
             <v>1.01561971142981</v>
-          </cell>
-          <cell r="CE103">
-            <v>0.95672514942466602</v>
           </cell>
         </row>
         <row r="104">
@@ -21504,13 +21504,13 @@
             <v>7.1050000000000004</v>
           </cell>
           <cell r="CC104">
+            <v>7.1050000000000004</v>
+          </cell>
+          <cell r="CD104">
             <v>0.981230711476343</v>
           </cell>
-          <cell r="CD104">
+          <cell r="CE104">
             <v>0.99148233903384497</v>
-          </cell>
-          <cell r="CE104">
-            <v>0.99312839428296995</v>
           </cell>
         </row>
         <row r="105">
@@ -21545,13 +21545,13 @@
             <v>7.1749999999999901</v>
           </cell>
           <cell r="CC105">
+            <v>7.1749999999999901</v>
+          </cell>
+          <cell r="CD105">
             <v>1.0031135749258</v>
           </cell>
-          <cell r="CD105">
+          <cell r="CE105">
             <v>0.97475211468971201</v>
-          </cell>
-          <cell r="CE105">
-            <v>1.01655293114546</v>
           </cell>
         </row>
         <row r="106">
@@ -21586,13 +21586,13 @@
             <v>7.2450000000000001</v>
           </cell>
           <cell r="CC106">
+            <v>7.2450000000000001</v>
+          </cell>
+          <cell r="CD106">
             <v>1.02227460281201</v>
           </cell>
-          <cell r="CD106">
+          <cell r="CE106">
             <v>0.94976672362066705</v>
-          </cell>
-          <cell r="CE106">
-            <v>1.0448824360184601</v>
           </cell>
         </row>
         <row r="107">
@@ -21627,13 +21627,13 @@
             <v>7.3150000000000004</v>
           </cell>
           <cell r="CC107">
+            <v>7.3150000000000004</v>
+          </cell>
+          <cell r="CD107">
             <v>1.0469986754523899</v>
           </cell>
-          <cell r="CD107">
+          <cell r="CE107">
             <v>0.93371129655877705</v>
-          </cell>
-          <cell r="CE107">
-            <v>1.0688961531810901</v>
           </cell>
         </row>
         <row r="108">
@@ -21668,13 +21668,13 @@
             <v>7.38499999999999</v>
           </cell>
           <cell r="CC108">
+            <v>7.38499999999999</v>
+          </cell>
+          <cell r="CD108">
             <v>1.06686952757964</v>
           </cell>
-          <cell r="CD108">
+          <cell r="CE108">
             <v>0.915235128976298</v>
-          </cell>
-          <cell r="CE108">
-            <v>1.09656810584236</v>
           </cell>
         </row>
         <row r="109">
@@ -21709,13 +21709,13 @@
             <v>7.4550000000000001</v>
           </cell>
           <cell r="CC109">
+            <v>7.4550000000000001</v>
+          </cell>
+          <cell r="CD109">
             <v>1.08298916249149</v>
           </cell>
-          <cell r="CD109">
+          <cell r="CE109">
             <v>0.89730972081995697</v>
-          </cell>
-          <cell r="CE109">
-            <v>1.1190440907954999</v>
           </cell>
         </row>
         <row r="110">
@@ -21750,13 +21750,13 @@
             <v>7.5250000000000004</v>
           </cell>
           <cell r="CC110">
+            <v>7.5250000000000004</v>
+          </cell>
+          <cell r="CD110">
             <v>1.0997388138115201</v>
           </cell>
-          <cell r="CD110">
+          <cell r="CE110">
             <v>0.88743886021482299</v>
-          </cell>
-          <cell r="CE110">
-            <v>1.13775684174874</v>
           </cell>
         </row>
         <row r="111">
@@ -21791,13 +21791,13 @@
             <v>7.59499999999999</v>
           </cell>
           <cell r="CC111">
+            <v>7.59499999999999</v>
+          </cell>
+          <cell r="CD111">
             <v>1.11095336721563</v>
           </cell>
-          <cell r="CD111">
+          <cell r="CE111">
             <v>0.877429586509204</v>
-          </cell>
-          <cell r="CE111">
-            <v>1.15929704512193</v>
           </cell>
         </row>
         <row r="112">
@@ -21832,13 +21832,13 @@
             <v>7.665</v>
           </cell>
           <cell r="CC112">
+            <v>7.665</v>
+          </cell>
+          <cell r="CD112">
             <v>1.11541777715698</v>
           </cell>
-          <cell r="CD112">
+          <cell r="CE112">
             <v>0.87059980265023196</v>
-          </cell>
-          <cell r="CE112">
-            <v>1.17088739110527</v>
           </cell>
         </row>
         <row r="113">
@@ -21873,13 +21873,13 @@
             <v>7.7350000000000003</v>
           </cell>
           <cell r="CC113">
+            <v>7.7350000000000003</v>
+          </cell>
+          <cell r="CD113">
             <v>1.1241276335205601</v>
           </cell>
-          <cell r="CD113">
+          <cell r="CE113">
             <v>0.86063874722754696</v>
-          </cell>
-          <cell r="CE113">
-            <v>1.17904238916273</v>
           </cell>
         </row>
         <row r="114">
@@ -21914,13 +21914,13 @@
             <v>7.8049999999999899</v>
           </cell>
           <cell r="CC114">
+            <v>7.8049999999999899</v>
+          </cell>
+          <cell r="CD114">
             <v>1.12687234346267</v>
           </cell>
-          <cell r="CD114">
+          <cell r="CE114">
             <v>0.85460062516948399</v>
-          </cell>
-          <cell r="CE114">
-            <v>1.18521760267767</v>
           </cell>
         </row>
         <row r="115">
@@ -21955,13 +21955,13 @@
             <v>7.875</v>
           </cell>
           <cell r="CC115">
+            <v>7.875</v>
+          </cell>
+          <cell r="CD115">
             <v>1.1328790991123501</v>
           </cell>
-          <cell r="CD115">
+          <cell r="CE115">
             <v>0.85235606224072602</v>
-          </cell>
-          <cell r="CE115">
-            <v>1.1916101413000499</v>
           </cell>
         </row>
         <row r="116">
@@ -21996,13 +21996,13 @@
             <v>7.9450000000000003</v>
           </cell>
           <cell r="CC116">
+            <v>7.9450000000000003</v>
+          </cell>
+          <cell r="CD116">
             <v>1.14344346903183</v>
           </cell>
-          <cell r="CD116">
+          <cell r="CE116">
             <v>0.84875107524896298</v>
-          </cell>
-          <cell r="CE116">
-            <v>1.1926088215049899</v>
           </cell>
         </row>
         <row r="117">
@@ -22037,13 +22037,13 @@
             <v>8.0150000000000006</v>
           </cell>
           <cell r="CC117">
+            <v>8.0150000000000006</v>
+          </cell>
+          <cell r="CD117">
             <v>1.13738683098108</v>
           </cell>
-          <cell r="CD117">
+          <cell r="CE117">
             <v>0.84935951855162595</v>
-          </cell>
-          <cell r="CE117">
-            <v>1.19316656886021</v>
           </cell>
         </row>
         <row r="118">
@@ -22078,13 +22078,13 @@
             <v>8.0850000000000009</v>
           </cell>
           <cell r="CC118">
+            <v>8.0850000000000009</v>
+          </cell>
+          <cell r="CD118">
             <v>1.13341837911451</v>
           </cell>
-          <cell r="CD118">
+          <cell r="CE118">
             <v>0.84754027239557495</v>
-          </cell>
-          <cell r="CE118">
-            <v>1.1926016600796101</v>
           </cell>
         </row>
         <row r="119">
@@ -22119,13 +22119,13 @@
             <v>8.1549999999999905</v>
           </cell>
           <cell r="CC119">
+            <v>8.1549999999999905</v>
+          </cell>
+          <cell r="CD119">
             <v>1.1274426754203599</v>
           </cell>
-          <cell r="CD119">
+          <cell r="CE119">
             <v>0.85483524801218003</v>
-          </cell>
-          <cell r="CE119">
-            <v>1.1783558047843401</v>
           </cell>
         </row>
         <row r="120">
@@ -22160,13 +22160,13 @@
             <v>8.2249999999999908</v>
           </cell>
           <cell r="CC120">
+            <v>8.2249999999999908</v>
+          </cell>
+          <cell r="CD120">
             <v>1.12000690414618</v>
           </cell>
-          <cell r="CD120">
+          <cell r="CE120">
             <v>0.85874367277263897</v>
-          </cell>
-          <cell r="CE120">
-            <v>1.1655907836263799</v>
           </cell>
         </row>
         <row r="121">
@@ -22201,13 +22201,13 @@
             <v>8.2949999999999893</v>
           </cell>
           <cell r="CC121">
+            <v>8.2949999999999893</v>
+          </cell>
+          <cell r="CD121">
             <v>1.1128982159580501</v>
           </cell>
-          <cell r="CD121">
+          <cell r="CE121">
             <v>0.86793712638270404</v>
-          </cell>
-          <cell r="CE121">
-            <v>1.1565181598326899</v>
           </cell>
         </row>
         <row r="122">
@@ -22242,13 +22242,13 @@
             <v>8.3650000000000002</v>
           </cell>
           <cell r="CC122">
+            <v>8.3650000000000002</v>
+          </cell>
+          <cell r="CD122">
             <v>1.1034423182457</v>
           </cell>
-          <cell r="CD122">
+          <cell r="CE122">
             <v>0.87897116436253797</v>
-          </cell>
-          <cell r="CE122">
-            <v>1.13716888976618</v>
           </cell>
         </row>
         <row r="123">
@@ -22283,13 +22283,13 @@
             <v>8.4350000000000005</v>
           </cell>
           <cell r="CC123">
+            <v>8.4350000000000005</v>
+          </cell>
+          <cell r="CD123">
             <v>1.09307506497263</v>
           </cell>
-          <cell r="CD123">
+          <cell r="CE123">
             <v>0.889882996059704</v>
-          </cell>
-          <cell r="CE123">
-            <v>1.11901286983133</v>
           </cell>
         </row>
         <row r="124">
@@ -22324,13 +22324,13 @@
             <v>8.5050000000000008</v>
           </cell>
           <cell r="CC124">
+            <v>8.5050000000000008</v>
+          </cell>
+          <cell r="CD124">
             <v>1.08223615665901</v>
           </cell>
-          <cell r="CD124">
+          <cell r="CE124">
             <v>0.89780267615578502</v>
-          </cell>
-          <cell r="CE124">
-            <v>1.10391143750734</v>
           </cell>
         </row>
         <row r="125">
@@ -22365,13 +22365,13 @@
             <v>8.5749999999999904</v>
           </cell>
           <cell r="CC125">
+            <v>8.5749999999999904</v>
+          </cell>
+          <cell r="CD125">
             <v>1.07160070723944</v>
           </cell>
-          <cell r="CD125">
+          <cell r="CE125">
             <v>0.91256943800931101</v>
-          </cell>
-          <cell r="CE125">
-            <v>1.0867582458635701</v>
           </cell>
         </row>
         <row r="126">
@@ -22406,13 +22406,13 @@
             <v>8.6449999999999907</v>
           </cell>
           <cell r="CC126">
+            <v>8.6449999999999907</v>
+          </cell>
+          <cell r="CD126">
             <v>1.0601659948125</v>
           </cell>
-          <cell r="CD126">
+          <cell r="CE126">
             <v>0.927435662921687</v>
-          </cell>
-          <cell r="CE126">
-            <v>1.064871305184</v>
           </cell>
         </row>
         <row r="127">
@@ -22447,13 +22447,13 @@
             <v>8.7149999999999892</v>
           </cell>
           <cell r="CC127">
+            <v>8.7149999999999892</v>
+          </cell>
+          <cell r="CD127">
             <v>1.0434324461351401</v>
           </cell>
-          <cell r="CD127">
+          <cell r="CE127">
             <v>0.93756822695363795</v>
-          </cell>
-          <cell r="CE127">
-            <v>1.0444909766406301</v>
           </cell>
         </row>
         <row r="128">
@@ -22488,13 +22488,13 @@
             <v>8.7850000000000001</v>
           </cell>
           <cell r="CC128">
+            <v>8.7850000000000001</v>
+          </cell>
+          <cell r="CD128">
             <v>1.0270071262979501</v>
           </cell>
-          <cell r="CD128">
+          <cell r="CE128">
             <v>0.94882974404087095</v>
-          </cell>
-          <cell r="CE128">
-            <v>1.0231885272493799</v>
           </cell>
         </row>
         <row r="129">
@@ -22529,13 +22529,13 @@
             <v>8.8550000000000004</v>
           </cell>
           <cell r="CC129">
+            <v>8.8550000000000004</v>
+          </cell>
+          <cell r="CD129">
             <v>1.01983004738743</v>
           </cell>
-          <cell r="CD129">
+          <cell r="CE129">
             <v>0.96714064170112501</v>
-          </cell>
-          <cell r="CE129">
-            <v>1.0091623329545301</v>
           </cell>
         </row>
         <row r="130">
@@ -22570,13 +22570,13 @@
             <v>8.9250000000000007</v>
           </cell>
           <cell r="CC130">
+            <v>8.9250000000000007</v>
+          </cell>
+          <cell r="CD130">
             <v>1.0084679448218601</v>
           </cell>
-          <cell r="CD130">
+          <cell r="CE130">
             <v>0.98358724809057096</v>
-          </cell>
-          <cell r="CE130">
-            <v>0.99524762381311704</v>
           </cell>
         </row>
         <row r="131">
@@ -22611,13 +22611,13 @@
             <v>8.9949999999999903</v>
           </cell>
           <cell r="CC131">
+            <v>8.9949999999999903</v>
+          </cell>
+          <cell r="CD131">
             <v>0.99784209269363799</v>
           </cell>
-          <cell r="CD131">
+          <cell r="CE131">
             <v>1.0005297835612901</v>
-          </cell>
-          <cell r="CE131">
-            <v>0.97755855878876496</v>
           </cell>
         </row>
         <row r="132">
@@ -22652,13 +22652,13 @@
             <v>9.0649999999999906</v>
           </cell>
           <cell r="CC132">
+            <v>9.0649999999999906</v>
+          </cell>
+          <cell r="CD132">
             <v>0.98088193107953303</v>
           </cell>
-          <cell r="CD132">
+          <cell r="CE132">
             <v>1.01284360871906</v>
-          </cell>
-          <cell r="CE132">
-            <v>0.96509064279011503</v>
           </cell>
         </row>
         <row r="133">
@@ -22693,13 +22693,13 @@
             <v>9.1349999999999891</v>
           </cell>
           <cell r="CC133">
+            <v>9.1349999999999891</v>
+          </cell>
+          <cell r="CD133">
             <v>0.971901307353217</v>
           </cell>
-          <cell r="CD133">
+          <cell r="CE133">
             <v>1.02572696061349</v>
-          </cell>
-          <cell r="CE133">
-            <v>0.95301468074448503</v>
           </cell>
         </row>
         <row r="134">
@@ -22734,13 +22734,13 @@
             <v>9.2050000000000001</v>
           </cell>
           <cell r="CC134">
+            <v>9.2050000000000001</v>
+          </cell>
+          <cell r="CD134">
             <v>0.96020764286909399</v>
           </cell>
-          <cell r="CD134">
+          <cell r="CE134">
             <v>1.0421437402545699</v>
-          </cell>
-          <cell r="CE134">
-            <v>0.93984077003671895</v>
           </cell>
         </row>
         <row r="135">
@@ -22775,13 +22775,13 @@
             <v>9.2750000000000004</v>
           </cell>
           <cell r="CC135">
+            <v>9.2750000000000004</v>
+          </cell>
+          <cell r="CD135">
             <v>0.95019786203019496</v>
           </cell>
-          <cell r="CD135">
+          <cell r="CE135">
             <v>1.0528384006181299</v>
-          </cell>
-          <cell r="CE135">
-            <v>0.93001466791989196</v>
           </cell>
         </row>
         <row r="136">
@@ -22816,13 +22816,13 @@
             <v>9.3450000000000006</v>
           </cell>
           <cell r="CC136">
+            <v>9.3450000000000006</v>
+          </cell>
+          <cell r="CD136">
             <v>0.94000064466079702</v>
           </cell>
-          <cell r="CD136">
+          <cell r="CE136">
             <v>1.06472752334142</v>
-          </cell>
-          <cell r="CE136">
-            <v>0.918580438147648</v>
           </cell>
         </row>
         <row r="137">
@@ -22857,13 +22857,13 @@
             <v>9.4149999999999903</v>
           </cell>
           <cell r="CC137">
+            <v>9.4149999999999903</v>
+          </cell>
+          <cell r="CD137">
             <v>0.93495490261301795</v>
           </cell>
-          <cell r="CD137">
+          <cell r="CE137">
             <v>1.0738221584398799</v>
-          </cell>
-          <cell r="CE137">
-            <v>0.90932768909844897</v>
           </cell>
         </row>
         <row r="138">
@@ -22898,13 +22898,13 @@
             <v>9.4849999999999905</v>
           </cell>
           <cell r="CC138">
+            <v>9.4849999999999905</v>
+          </cell>
+          <cell r="CD138">
             <v>0.92824982420257895</v>
           </cell>
-          <cell r="CD138">
+          <cell r="CE138">
             <v>1.08531186311473</v>
-          </cell>
-          <cell r="CE138">
-            <v>0.90272908808588503</v>
           </cell>
         </row>
         <row r="139">
@@ -22939,13 +22939,13 @@
             <v>9.5549999999999908</v>
           </cell>
           <cell r="CC139">
+            <v>9.5549999999999908</v>
+          </cell>
+          <cell r="CD139">
             <v>0.92374152876489501</v>
           </cell>
-          <cell r="CD139">
+          <cell r="CE139">
             <v>1.09289581836054</v>
-          </cell>
-          <cell r="CE139">
-            <v>0.89067591802711799</v>
           </cell>
         </row>
         <row r="140">
@@ -22980,13 +22980,13 @@
             <v>9.625</v>
           </cell>
           <cell r="CC140">
+            <v>9.625</v>
+          </cell>
+          <cell r="CD140">
             <v>0.91498908262712098</v>
           </cell>
-          <cell r="CD140">
+          <cell r="CE140">
             <v>1.09733336741211</v>
-          </cell>
-          <cell r="CE140">
-            <v>0.89085998559951696</v>
           </cell>
         </row>
         <row r="141">
@@ -23021,13 +23021,13 @@
             <v>9.6950000000000003</v>
           </cell>
           <cell r="CC141">
+            <v>9.6950000000000003</v>
+          </cell>
+          <cell r="CD141">
             <v>0.90748911603114302</v>
           </cell>
-          <cell r="CD141">
+          <cell r="CE141">
             <v>1.09855875041041</v>
-          </cell>
-          <cell r="CE141">
-            <v>0.88607285883609599</v>
           </cell>
         </row>
         <row r="142">
@@ -23062,13 +23062,13 @@
             <v>9.7650000000000006</v>
           </cell>
           <cell r="CC142">
+            <v>9.7650000000000006</v>
+          </cell>
+          <cell r="CD142">
             <v>0.90807487215208105</v>
           </cell>
-          <cell r="CD142">
+          <cell r="CE142">
             <v>1.0986768624643699</v>
-          </cell>
-          <cell r="CE142">
-            <v>0.88248673743745498</v>
           </cell>
         </row>
         <row r="143">
@@ -23103,13 +23103,13 @@
             <v>9.8350000000000009</v>
           </cell>
           <cell r="CC143">
+            <v>9.8350000000000009</v>
+          </cell>
+          <cell r="CD143">
             <v>0.90501923535400697</v>
           </cell>
-          <cell r="CD143">
+          <cell r="CE143">
             <v>1.0990399122704999</v>
-          </cell>
-          <cell r="CE143">
-            <v>0.88227528714243497</v>
           </cell>
         </row>
         <row r="144">
@@ -23144,13 +23144,13 @@
             <v>9.9049999999999905</v>
           </cell>
           <cell r="CC144">
+            <v>9.9049999999999905</v>
+          </cell>
+          <cell r="CD144">
             <v>0.91375845119024601</v>
           </cell>
-          <cell r="CD144">
+          <cell r="CE144">
             <v>1.09652112672762</v>
-          </cell>
-          <cell r="CE144">
-            <v>0.88409957285135199</v>
           </cell>
         </row>
         <row r="145">
@@ -23185,13 +23185,13 @@
             <v>9.9749999999999908</v>
           </cell>
           <cell r="CC145">
+            <v>9.9749999999999908</v>
+          </cell>
+          <cell r="CD145">
             <v>0.914389154064425</v>
           </cell>
-          <cell r="CD145">
+          <cell r="CE145">
             <v>1.0929631233761301</v>
-          </cell>
-          <cell r="CE145">
-            <v>0.88750080349129001</v>
           </cell>
         </row>
         <row r="146">
@@ -23226,13 +23226,13 @@
             <v>10.0449999999999</v>
           </cell>
           <cell r="CC146">
+            <v>10.0449999999999</v>
+          </cell>
+          <cell r="CD146">
             <v>0.91321456435811699</v>
           </cell>
-          <cell r="CD146">
+          <cell r="CE146">
             <v>1.0890503884363101</v>
-          </cell>
-          <cell r="CE146">
-            <v>0.89359376353799402</v>
           </cell>
         </row>
         <row r="147">
@@ -23267,13 +23267,13 @@
             <v>10.115</v>
           </cell>
           <cell r="CC147">
+            <v>10.115</v>
+          </cell>
+          <cell r="CD147">
             <v>0.92360632524141095</v>
           </cell>
-          <cell r="CD147">
+          <cell r="CE147">
             <v>1.0830865875576099</v>
-          </cell>
-          <cell r="CE147">
-            <v>0.90436182852155</v>
           </cell>
         </row>
         <row r="148">
@@ -23308,13 +23308,13 @@
             <v>10.185</v>
           </cell>
           <cell r="CC148">
+            <v>10.185</v>
+          </cell>
+          <cell r="CD148">
             <v>0.92620495453243401</v>
           </cell>
-          <cell r="CD148">
+          <cell r="CE148">
             <v>1.07700069332922</v>
-          </cell>
-          <cell r="CE148">
-            <v>0.91262922862274998</v>
           </cell>
         </row>
         <row r="149">
@@ -23349,13 +23349,13 @@
             <v>10.255000000000001</v>
           </cell>
           <cell r="CC149">
+            <v>10.255000000000001</v>
+          </cell>
+          <cell r="CD149">
             <v>0.93467553881389198</v>
           </cell>
-          <cell r="CD149">
+          <cell r="CE149">
             <v>1.06908123046595</v>
-          </cell>
-          <cell r="CE149">
-            <v>0.91737080921257697</v>
           </cell>
         </row>
         <row r="150">
@@ -23390,13 +23390,13 @@
             <v>10.3249999999999</v>
           </cell>
           <cell r="CC150">
+            <v>10.3249999999999</v>
+          </cell>
+          <cell r="CD150">
             <v>0.942316508963979</v>
           </cell>
-          <cell r="CD150">
+          <cell r="CE150">
             <v>1.0571208870106901</v>
-          </cell>
-          <cell r="CE150">
-            <v>0.92697637354963403</v>
           </cell>
         </row>
         <row r="151">
@@ -23431,13 +23431,13 @@
             <v>10.3949999999999</v>
           </cell>
           <cell r="CC151">
+            <v>10.3949999999999</v>
+          </cell>
+          <cell r="CD151">
             <v>0.93399729154623801</v>
           </cell>
-          <cell r="CD151">
+          <cell r="CE151">
             <v>1.0488190024944599</v>
-          </cell>
-          <cell r="CE151">
-            <v>0.92848309322511002</v>
           </cell>
         </row>
         <row r="152">
@@ -23472,13 +23472,13 @@
             <v>10.4649999999999</v>
           </cell>
           <cell r="CC152">
+            <v>10.4649999999999</v>
+          </cell>
+          <cell r="CD152">
             <v>0.941825931382125</v>
           </cell>
-          <cell r="CD152">
+          <cell r="CE152">
             <v>1.0434046041756</v>
-          </cell>
-          <cell r="CE152">
-            <v>0.941903713369454</v>
           </cell>
         </row>
         <row r="153">
@@ -23513,13 +23513,13 @@
             <v>10.535</v>
           </cell>
           <cell r="CC153">
+            <v>10.535</v>
+          </cell>
+          <cell r="CD153">
             <v>0.94737281688235697</v>
           </cell>
-          <cell r="CD153">
+          <cell r="CE153">
             <v>1.03111811713926</v>
-          </cell>
-          <cell r="CE153">
-            <v>0.94584311456701298</v>
           </cell>
         </row>
         <row r="154">
@@ -23554,13 +23554,13 @@
             <v>10.605</v>
           </cell>
           <cell r="CC154">
+            <v>10.605</v>
+          </cell>
+          <cell r="CD154">
             <v>0.95380134831699004</v>
           </cell>
-          <cell r="CD154">
+          <cell r="CE154">
             <v>1.0219767356621501</v>
-          </cell>
-          <cell r="CE154">
-            <v>0.95903686961664503</v>
           </cell>
         </row>
         <row r="155">
@@ -23595,13 +23595,13 @@
             <v>10.675000000000001</v>
           </cell>
           <cell r="CC155">
+            <v>10.675000000000001</v>
+          </cell>
+          <cell r="CD155">
             <v>0.95515557914175697</v>
           </cell>
-          <cell r="CD155">
+          <cell r="CE155">
             <v>1.0104063145637501</v>
-          </cell>
-          <cell r="CE155">
-            <v>0.96164911760954697</v>
           </cell>
         </row>
         <row r="156">
@@ -23636,13 +23636,13 @@
             <v>10.7449999999999</v>
           </cell>
           <cell r="CC156">
+            <v>10.7449999999999</v>
+          </cell>
+          <cell r="CD156">
             <v>0.969346916355451</v>
           </cell>
-          <cell r="CD156">
+          <cell r="CE156">
             <v>0.99966412370379498</v>
-          </cell>
-          <cell r="CE156">
-            <v>0.97111255387786499</v>
           </cell>
         </row>
         <row r="157">
@@ -23677,13 +23677,13 @@
             <v>10.8149999999999</v>
           </cell>
           <cell r="CC157">
+            <v>10.8149999999999</v>
+          </cell>
+          <cell r="CD157">
             <v>0.97541231550673102</v>
           </cell>
-          <cell r="CD157">
+          <cell r="CE157">
             <v>0.99192870342801298</v>
-          </cell>
-          <cell r="CE157">
-            <v>0.98341671959231702</v>
           </cell>
         </row>
         <row r="158">
@@ -23718,13 +23718,13 @@
             <v>10.8849999999999</v>
           </cell>
           <cell r="CC158">
+            <v>10.8849999999999</v>
+          </cell>
+          <cell r="CD158">
             <v>0.99873024393071197</v>
           </cell>
-          <cell r="CD158">
+          <cell r="CE158">
             <v>0.98232411104668804</v>
-          </cell>
-          <cell r="CE158">
-            <v>1.00592215879395</v>
           </cell>
         </row>
         <row r="159">
@@ -23759,13 +23759,13 @@
             <v>10.955</v>
           </cell>
           <cell r="CC159">
+            <v>10.955</v>
+          </cell>
+          <cell r="CD159">
             <v>1.00762434095817</v>
           </cell>
-          <cell r="CD159">
+          <cell r="CE159">
             <v>0.975961599567717</v>
-          </cell>
-          <cell r="CE159">
-            <v>1.01013318879947</v>
           </cell>
         </row>
         <row r="160">
@@ -23800,13 +23800,13 @@
             <v>11.025</v>
           </cell>
           <cell r="CC160">
+            <v>11.025</v>
+          </cell>
+          <cell r="CD160">
             <v>1.01305244958684</v>
           </cell>
-          <cell r="CD160">
+          <cell r="CE160">
             <v>0.97140562162558697</v>
-          </cell>
-          <cell r="CE160">
-            <v>1.0215952196357501</v>
           </cell>
         </row>
         <row r="161">
@@ -23841,13 +23841,13 @@
             <v>11.095000000000001</v>
           </cell>
           <cell r="CC161">
+            <v>11.095000000000001</v>
+          </cell>
+          <cell r="CD161">
             <v>1.0341278160021501</v>
           </cell>
-          <cell r="CD161">
+          <cell r="CE161">
             <v>0.96611521691623403</v>
-          </cell>
-          <cell r="CE161">
-            <v>1.0371058519657199</v>
           </cell>
         </row>
         <row r="162">
@@ -23882,13 +23882,13 @@
             <v>11.1649999999999</v>
           </cell>
           <cell r="CC162">
+            <v>11.1649999999999</v>
+          </cell>
+          <cell r="CD162">
             <v>1.0437600019616999</v>
           </cell>
-          <cell r="CD162">
+          <cell r="CE162">
             <v>0.95816399464105795</v>
-          </cell>
-          <cell r="CE162">
-            <v>1.05849862743259</v>
           </cell>
         </row>
         <row r="163">
@@ -23923,13 +23923,13 @@
             <v>11.2349999999999</v>
           </cell>
           <cell r="CC163">
+            <v>11.2349999999999</v>
+          </cell>
+          <cell r="CD163">
             <v>1.0493804926880299</v>
           </cell>
-          <cell r="CD163">
+          <cell r="CE163">
             <v>0.95341230198891702</v>
-          </cell>
-          <cell r="CE163">
-            <v>1.0704566331728</v>
           </cell>
         </row>
         <row r="164">
@@ -23964,13 +23964,13 @@
             <v>11.3049999999999</v>
           </cell>
           <cell r="CC164">
+            <v>11.3049999999999</v>
+          </cell>
+          <cell r="CD164">
             <v>1.05985780047349</v>
           </cell>
-          <cell r="CD164">
+          <cell r="CE164">
             <v>0.94803126454745201</v>
-          </cell>
-          <cell r="CE164">
-            <v>1.07709964377005</v>
           </cell>
         </row>
         <row r="165">
@@ -24005,13 +24005,13 @@
             <v>11.375</v>
           </cell>
           <cell r="CC165">
+            <v>11.375</v>
+          </cell>
+          <cell r="CD165">
             <v>1.07913518888509</v>
           </cell>
-          <cell r="CD165">
+          <cell r="CE165">
             <v>0.94544267959717898</v>
-          </cell>
-          <cell r="CE165">
-            <v>1.10035667971162</v>
           </cell>
         </row>
         <row r="166">
@@ -24046,13 +24046,13 @@
             <v>11.445</v>
           </cell>
           <cell r="CC166">
+            <v>11.445</v>
+          </cell>
+          <cell r="CD166">
             <v>1.0728881709009099</v>
           </cell>
-          <cell r="CD166">
+          <cell r="CE166">
             <v>0.94499338148724199</v>
-          </cell>
-          <cell r="CE166">
-            <v>1.09243213163789</v>
           </cell>
         </row>
         <row r="167">
@@ -24087,13 +24087,13 @@
             <v>11.515000000000001</v>
           </cell>
           <cell r="CC167">
+            <v>11.515000000000001</v>
+          </cell>
+          <cell r="CD167">
             <v>1.0675025600439001</v>
           </cell>
-          <cell r="CD167">
+          <cell r="CE167">
             <v>0.94530274085169397</v>
-          </cell>
-          <cell r="CE167">
-            <v>1.08098401663392</v>
           </cell>
         </row>
         <row r="168">
@@ -24128,13 +24128,13 @@
             <v>11.585000000000001</v>
           </cell>
           <cell r="CC168">
+            <v>11.585000000000001</v>
+          </cell>
+          <cell r="CD168">
             <v>1.0785014663738</v>
           </cell>
-          <cell r="CD168">
+          <cell r="CE168">
             <v>0.94177187410824004</v>
-          </cell>
-          <cell r="CE168">
-            <v>1.0938359810487299</v>
           </cell>
         </row>
         <row r="169">
@@ -24169,13 +24169,13 @@
             <v>11.6549999999999</v>
           </cell>
           <cell r="CC169">
+            <v>11.6549999999999</v>
+          </cell>
+          <cell r="CD169">
             <v>1.0747899879426901</v>
           </cell>
-          <cell r="CD169">
+          <cell r="CE169">
             <v>0.94156775880152899</v>
-          </cell>
-          <cell r="CE169">
-            <v>1.09168177936054</v>
           </cell>
         </row>
         <row r="170">
@@ -24210,13 +24210,13 @@
             <v>11.7249999999999</v>
           </cell>
           <cell r="CC170">
+            <v>11.7249999999999</v>
+          </cell>
+          <cell r="CD170">
             <v>1.0962218168234199</v>
           </cell>
-          <cell r="CD170">
+          <cell r="CE170">
             <v>0.94263375768292601</v>
-          </cell>
-          <cell r="CE170">
-            <v>1.1100605990209</v>
           </cell>
         </row>
         <row r="171">
@@ -24251,13 +24251,13 @@
             <v>11.7949999999999</v>
           </cell>
           <cell r="CC171">
+            <v>11.7949999999999</v>
+          </cell>
+          <cell r="CD171">
             <v>1.0881680745103099</v>
           </cell>
-          <cell r="CD171">
+          <cell r="CE171">
             <v>0.94371446920539004</v>
-          </cell>
-          <cell r="CE171">
-            <v>1.09639780439587</v>
           </cell>
         </row>
         <row r="172">
@@ -24292,13 +24292,13 @@
             <v>11.865</v>
           </cell>
           <cell r="CC172">
+            <v>11.865</v>
+          </cell>
+          <cell r="CD172">
             <v>1.08229520286796</v>
           </cell>
-          <cell r="CD172">
+          <cell r="CE172">
             <v>0.94691166781741298</v>
-          </cell>
-          <cell r="CE172">
-            <v>1.0898217492006901</v>
           </cell>
         </row>
         <row r="173">
@@ -24333,13 +24333,13 @@
             <v>11.935</v>
           </cell>
           <cell r="CC173">
+            <v>11.935</v>
+          </cell>
+          <cell r="CD173">
             <v>1.08936164049156</v>
           </cell>
-          <cell r="CD173">
+          <cell r="CE173">
             <v>0.94872348413418295</v>
-          </cell>
-          <cell r="CE173">
-            <v>1.0974125223003499</v>
           </cell>
         </row>
         <row r="174">
@@ -24374,13 +24374,13 @@
             <v>12.005000000000001</v>
           </cell>
           <cell r="CC174">
+            <v>12.005000000000001</v>
+          </cell>
+          <cell r="CD174">
             <v>1.0753999952370901</v>
           </cell>
-          <cell r="CD174">
+          <cell r="CE174">
             <v>0.95185511832740299</v>
-          </cell>
-          <cell r="CE174">
-            <v>1.0835238886518199</v>
           </cell>
         </row>
         <row r="175">
@@ -24415,13 +24415,13 @@
             <v>12.0749999999999</v>
           </cell>
           <cell r="CC175">
+            <v>12.0749999999999</v>
+          </cell>
+          <cell r="CD175">
             <v>1.0657099196958799</v>
           </cell>
-          <cell r="CD175">
+          <cell r="CE175">
             <v>0.95614616251032403</v>
-          </cell>
-          <cell r="CE175">
-            <v>1.07120671125955</v>
           </cell>
         </row>
         <row r="176">
@@ -24456,13 +24456,13 @@
             <v>12.1449999999999</v>
           </cell>
           <cell r="CC176">
+            <v>12.1449999999999</v>
+          </cell>
+          <cell r="CD176">
             <v>1.05745219255191</v>
           </cell>
-          <cell r="CD176">
+          <cell r="CE176">
             <v>0.96067322543056199</v>
-          </cell>
-          <cell r="CE176">
-            <v>1.06114224078528</v>
           </cell>
         </row>
         <row r="177">
@@ -24497,13 +24497,13 @@
             <v>12.2149999999999</v>
           </cell>
           <cell r="CC177">
+            <v>12.2149999999999</v>
+          </cell>
+          <cell r="CD177">
             <v>1.0558016382979001</v>
           </cell>
-          <cell r="CD177">
+          <cell r="CE177">
             <v>0.96845800575952101</v>
-          </cell>
-          <cell r="CE177">
-            <v>1.0598566059522001</v>
           </cell>
         </row>
         <row r="178">
@@ -24538,13 +24538,13 @@
             <v>12.285</v>
           </cell>
           <cell r="CC178">
+            <v>12.285</v>
+          </cell>
+          <cell r="CD178">
             <v>1.03243485615013</v>
           </cell>
-          <cell r="CD178">
+          <cell r="CE178">
             <v>0.97383937710957402</v>
-          </cell>
-          <cell r="CE178">
-            <v>1.03535791734564</v>
           </cell>
         </row>
         <row r="179">
@@ -24579,13 +24579,13 @@
             <v>12.355</v>
           </cell>
           <cell r="CC179">
+            <v>12.355</v>
+          </cell>
+          <cell r="CD179">
             <v>1.03023537809246</v>
           </cell>
-          <cell r="CD179">
+          <cell r="CE179">
             <v>0.97648527928545004</v>
-          </cell>
-          <cell r="CE179">
-            <v>1.0285385151083799</v>
           </cell>
         </row>
         <row r="180">
@@ -24620,13 +24620,13 @@
             <v>12.425000000000001</v>
           </cell>
           <cell r="CC180">
+            <v>12.425000000000001</v>
+          </cell>
+          <cell r="CD180">
             <v>1.01171493723675</v>
           </cell>
-          <cell r="CD180">
+          <cell r="CE180">
             <v>0.98586063620664899</v>
-          </cell>
-          <cell r="CE180">
-            <v>1.0130141125249199</v>
           </cell>
         </row>
         <row r="181">
@@ -24661,13 +24661,13 @@
             <v>12.4949999999999</v>
           </cell>
           <cell r="CC181">
+            <v>12.4949999999999</v>
+          </cell>
+          <cell r="CD181">
             <v>1.0089643527743699</v>
           </cell>
-          <cell r="CD181">
+          <cell r="CE181">
             <v>0.99212226448822904</v>
-          </cell>
-          <cell r="CE181">
-            <v>1.01007818690025</v>
           </cell>
         </row>
         <row r="182">
@@ -24702,13 +24702,13 @@
             <v>12.5649999999999</v>
           </cell>
           <cell r="CC182">
+            <v>12.5649999999999</v>
+          </cell>
+          <cell r="CD182">
             <v>1.0026255781570199</v>
           </cell>
-          <cell r="CD182">
+          <cell r="CE182">
             <v>0.99788234532249098</v>
-          </cell>
-          <cell r="CE182">
-            <v>1.00093700726937</v>
           </cell>
         </row>
         <row r="183">
@@ -24743,13 +24743,13 @@
             <v>12.6349999999999</v>
           </cell>
           <cell r="CC183">
+            <v>12.6349999999999</v>
+          </cell>
+          <cell r="CD183">
             <v>0.98020558695189697</v>
           </cell>
-          <cell r="CD183">
+          <cell r="CE183">
             <v>1.0009546120750401</v>
-          </cell>
-          <cell r="CE183">
-            <v>0.97471342434937103</v>
           </cell>
         </row>
         <row r="184">
@@ -24784,13 +24784,13 @@
             <v>12.705</v>
           </cell>
           <cell r="CC184">
+            <v>12.705</v>
+          </cell>
+          <cell r="CD184">
             <v>0.97909930308377602</v>
           </cell>
-          <cell r="CD184">
+          <cell r="CE184">
             <v>1.00478556971151</v>
-          </cell>
-          <cell r="CE184">
-            <v>0.97561411922428398</v>
           </cell>
         </row>
         <row r="185">
@@ -24825,13 +24825,13 @@
             <v>12.775</v>
           </cell>
           <cell r="CC185">
+            <v>12.775</v>
+          </cell>
+          <cell r="CD185">
             <v>0.97221100532409099</v>
           </cell>
-          <cell r="CD185">
+          <cell r="CE185">
             <v>1.0087101193977399</v>
-          </cell>
-          <cell r="CE185">
-            <v>0.96729767823574797</v>
           </cell>
         </row>
         <row r="186">
@@ -24866,13 +24866,13 @@
             <v>12.845000000000001</v>
           </cell>
           <cell r="CC186">
+            <v>12.845000000000001</v>
+          </cell>
+          <cell r="CD186">
             <v>0.98003665253719496</v>
           </cell>
-          <cell r="CD186">
+          <cell r="CE186">
             <v>1.0138256659259599</v>
-          </cell>
-          <cell r="CE186">
-            <v>0.97113508861431197</v>
           </cell>
         </row>
         <row r="187">
@@ -24907,13 +24907,13 @@
             <v>12.9149999999999</v>
           </cell>
           <cell r="CC187">
+            <v>12.9149999999999</v>
+          </cell>
+          <cell r="CD187">
             <v>0.96915728665346002</v>
           </cell>
-          <cell r="CD187">
+          <cell r="CE187">
             <v>1.01820893463284</v>
-          </cell>
-          <cell r="CE187">
-            <v>0.95904529263960303</v>
           </cell>
         </row>
         <row r="188">
@@ -24948,13 +24948,13 @@
             <v>12.9849999999999</v>
           </cell>
           <cell r="CC188">
+            <v>12.9849999999999</v>
+          </cell>
+          <cell r="CD188">
             <v>0.96444838886731499</v>
           </cell>
-          <cell r="CD188">
+          <cell r="CE188">
             <v>1.0248460366188901</v>
-          </cell>
-          <cell r="CE188">
-            <v>0.948998933077421</v>
           </cell>
         </row>
         <row r="189">
@@ -24989,13 +24989,13 @@
             <v>13.0549999999999</v>
           </cell>
           <cell r="CC189">
+            <v>13.0549999999999</v>
+          </cell>
+          <cell r="CD189">
             <v>0.95989550359493503</v>
           </cell>
-          <cell r="CD189">
+          <cell r="CE189">
             <v>1.0267263466477701</v>
-          </cell>
-          <cell r="CE189">
-            <v>0.94848537069591099</v>
           </cell>
         </row>
         <row r="190">
@@ -25030,13 +25030,13 @@
             <v>13.125</v>
           </cell>
           <cell r="CC190">
+            <v>13.125</v>
+          </cell>
+          <cell r="CD190">
             <v>0.96049874596942297</v>
           </cell>
-          <cell r="CD190">
+          <cell r="CE190">
             <v>1.0332584528761899</v>
-          </cell>
-          <cell r="CE190">
-            <v>0.95352912956163105</v>
           </cell>
         </row>
         <row r="191">
@@ -25071,13 +25071,13 @@
             <v>13.195</v>
           </cell>
           <cell r="CC191">
+            <v>13.195</v>
+          </cell>
+          <cell r="CD191">
             <v>0.95889016993504395</v>
           </cell>
-          <cell r="CD191">
+          <cell r="CE191">
             <v>1.03661127233978</v>
-          </cell>
-          <cell r="CE191">
-            <v>0.94838941420714296</v>
           </cell>
         </row>
         <row r="192">
@@ -25112,13 +25112,13 @@
             <v>13.265000000000001</v>
           </cell>
           <cell r="CC192">
+            <v>13.265000000000001</v>
+          </cell>
+          <cell r="CD192">
             <v>0.95489113833541595</v>
           </cell>
-          <cell r="CD192">
+          <cell r="CE192">
             <v>1.0401321728487001</v>
-          </cell>
-          <cell r="CE192">
-            <v>0.94389648100369905</v>
           </cell>
         </row>
         <row r="193">
@@ -25153,13 +25153,13 @@
             <v>13.335000000000001</v>
           </cell>
           <cell r="CC193">
+            <v>13.335000000000001</v>
+          </cell>
+          <cell r="CD193">
             <v>0.95033645773473296</v>
           </cell>
-          <cell r="CD193">
+          <cell r="CE193">
             <v>1.04302011505227</v>
-          </cell>
-          <cell r="CE193">
-            <v>0.94161611557397196</v>
           </cell>
         </row>
         <row r="194">
@@ -25194,13 +25194,13 @@
             <v>13.4049999999999</v>
           </cell>
           <cell r="CC194">
+            <v>13.4049999999999</v>
+          </cell>
+          <cell r="CD194">
             <v>0.96606673006648802</v>
           </cell>
-          <cell r="CD194">
+          <cell r="CE194">
             <v>1.0434240880761401</v>
-          </cell>
-          <cell r="CE194">
-            <v>0.95626037345959702</v>
           </cell>
         </row>
         <row r="195">
@@ -25235,13 +25235,13 @@
             <v>13.4749999999999</v>
           </cell>
           <cell r="CC195">
+            <v>13.4749999999999</v>
+          </cell>
+          <cell r="CD195">
             <v>0.95323179839581396</v>
           </cell>
-          <cell r="CD195">
+          <cell r="CE195">
             <v>1.0445379025699899</v>
-          </cell>
-          <cell r="CE195">
-            <v>0.94646759915032197</v>
           </cell>
         </row>
         <row r="196">
@@ -25276,13 +25276,13 @@
             <v>13.5449999999999</v>
           </cell>
           <cell r="CC196">
+            <v>13.5449999999999</v>
+          </cell>
+          <cell r="CD196">
             <v>0.94990841118882297</v>
           </cell>
-          <cell r="CD196">
+          <cell r="CE196">
             <v>1.0418190988473801</v>
-          </cell>
-          <cell r="CE196">
-            <v>0.94249548569333297</v>
           </cell>
         </row>
         <row r="197">
@@ -25317,13 +25317,13 @@
             <v>13.615</v>
           </cell>
           <cell r="CC197">
+            <v>13.615</v>
+          </cell>
+          <cell r="CD197">
             <v>0.94743472419436203</v>
           </cell>
-          <cell r="CD197">
+          <cell r="CE197">
             <v>1.04141687707148</v>
-          </cell>
-          <cell r="CE197">
-            <v>0.94140551104350201</v>
           </cell>
         </row>
         <row r="198">
@@ -25358,13 +25358,13 @@
             <v>13.685</v>
           </cell>
           <cell r="CC198">
+            <v>13.685</v>
+          </cell>
+          <cell r="CD198">
             <v>0.94546328085904796</v>
           </cell>
-          <cell r="CD198">
+          <cell r="CE198">
             <v>1.0411883517094001</v>
-          </cell>
-          <cell r="CE198">
-            <v>0.94137225504334898</v>
           </cell>
         </row>
         <row r="199">
@@ -25399,13 +25399,13 @@
             <v>13.755000000000001</v>
           </cell>
           <cell r="CC199">
+            <v>13.755000000000001</v>
+          </cell>
+          <cell r="CD199">
             <v>0.94918042238675304</v>
           </cell>
-          <cell r="CD199">
+          <cell r="CE199">
             <v>1.0369749379418001</v>
-          </cell>
-          <cell r="CE199">
-            <v>0.94871658980645501</v>
           </cell>
         </row>
         <row r="200">
@@ -25440,13 +25440,13 @@
             <v>13.8249999999999</v>
           </cell>
           <cell r="CC200">
+            <v>13.8249999999999</v>
+          </cell>
+          <cell r="CD200">
             <v>0.95418793968187698</v>
           </cell>
-          <cell r="CD200">
+          <cell r="CE200">
             <v>1.0358147075225801</v>
-          </cell>
-          <cell r="CE200">
-            <v>0.95493147485626495</v>
           </cell>
         </row>
         <row r="201">
@@ -25481,13 +25481,13 @@
             <v>13.8949999999999</v>
           </cell>
           <cell r="CC201">
+            <v>13.8949999999999</v>
+          </cell>
+          <cell r="CD201">
             <v>0.96296194288008297</v>
           </cell>
-          <cell r="CD201">
+          <cell r="CE201">
             <v>1.0352366401050701</v>
-          </cell>
-          <cell r="CE201">
-            <v>0.96204436218244904</v>
           </cell>
         </row>
         <row r="202">
@@ -25522,13 +25522,13 @@
             <v>13.9649999999999</v>
           </cell>
           <cell r="CC202">
+            <v>13.9649999999999</v>
+          </cell>
+          <cell r="CD202">
             <v>0.96756766861427501</v>
           </cell>
-          <cell r="CD202">
+          <cell r="CE202">
             <v>1.0310673385774101</v>
-          </cell>
-          <cell r="CE202">
-            <v>0.96617817378228099</v>
           </cell>
         </row>
       </sheetData>
@@ -25540,27 +25540,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_24" connectionId="14" xr16:uid="{85609B8F-B551-A94E-BE68-0EC4D6F55344}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_18" connectionId="9" xr16:uid="{526525DD-D859-0A44-869D-BF103530866F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_25" connectionId="4" xr16:uid="{4B9AE998-02D3-AE4A-9A06-04CD6E2198B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_4" connectionId="2" xr16:uid="{2922ECAE-3D6B-CE44-9828-6DECC18AEC29}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_15" connectionId="1" xr16:uid="{69B7BF40-2DDC-6746-9B59-73A25B67AD55}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_19" connectionId="10" xr16:uid="{1B53353F-9F68-2647-90B0-F8E2BC4A8664}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_21" connectionId="11" xr16:uid="{0E195ED8-0EF3-CD42-B451-A322C8C6203B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_6" connectionId="15" xr16:uid="{F3F850C2-0CD3-6149-833E-6D82965C646A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_20" connectionId="3" xr16:uid="{AC4AFB09-2DEB-6243-ACCB-4F68EB901C84}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_4" connectionId="2" xr16:uid="{2922ECAE-3D6B-CE44-9828-6DECC18AEC29}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_26" connectionId="5" xr16:uid="{100C69EC-CCF0-634B-8E07-0C9A4C533FC8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25568,31 +25568,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_18" connectionId="9" xr16:uid="{526525DD-D859-0A44-869D-BF103530866F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_24" connectionId="14" xr16:uid="{85609B8F-B551-A94E-BE68-0EC4D6F55344}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_21" connectionId="11" xr16:uid="{0E195ED8-0EF3-CD42-B451-A322C8C6203B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_5" connectionId="6" xr16:uid="{03B457E5-E35F-0C4A-98BA-9D83A1123035}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_16" connectionId="7" xr16:uid="{38E8817A-0102-7D4B-8977-7895270FABA1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_23" connectionId="13" xr16:uid="{6E075D74-038E-AC43-BE60-32A589D0FFDF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_15" connectionId="1" xr16:uid="{69B7BF40-2DDC-6746-9B59-73A25B67AD55}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_26" connectionId="5" xr16:uid="{100C69EC-CCF0-634B-8E07-0C9A4C533FC8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_6" connectionId="15" xr16:uid="{F3F850C2-0CD3-6149-833E-6D82965C646A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_5" connectionId="6" xr16:uid="{03B457E5-E35F-0C4A-98BA-9D83A1123035}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_14" connectionId="16" xr16:uid="{69A433FE-AD54-564C-9B24-775643D02512}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_14" connectionId="16" xr16:uid="{69A433FE-AD54-564C-9B24-775643D02512}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_20" connectionId="3" xr16:uid="{AC4AFB09-2DEB-6243-ACCB-4F68EB901C84}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25600,7 +25600,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_25" connectionId="4" xr16:uid="{4B9AE998-02D3-AE4A-9A06-04CD6E2198B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gr_average_23" connectionId="13" xr16:uid="{6E075D74-038E-AC43-BE60-32A589D0FFDF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25902,7 +25902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC153B2-087D-FA46-8B58-AFDC059788E4}">
   <dimension ref="A1:BF675"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A666" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
       <selection activeCell="H681" sqref="H681"/>
     </sheetView>
   </sheetViews>
